--- a/finetuning/it_datasets/qa_dataset/qa_it_menzel bourguiba_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_menzel bourguiba_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA109"/>
+  <dimension ref="A1:AB109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,62 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Cafe, check out Cafe Sidi Yahia located at 5Q7M+HFR Cafe Sidi Yahia, Unnamed Road, Menzel Bourguiba. This top-rated destination is perfect for Cafe enthusiasts and offers a variety of Cafe options to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Sidi+Yahia/data=!4m7!3m6!1s0x12e323e0dfb4b8cd:0x8744f656725eec5f!8m2!3d37.163979!4d9.7836299!16s%2Fg%2F11h1m585rs!19sChIJzbi03-Aj4xIRX-xeclb2RIc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 532 241.</t>
+          <t>Cafe Sidi Yahia, wonderfully rated 4.3, is a cafe located at 5Q7M+HFR Cafe Sidi Yahia, Unnamed Road, Menzel Bourguiba, Tunisia, with coordinates (37.1489944, 9.788904). It is open from 06:00 to 23:00 and if you need to contact them, feel free to call the following number: 99 532 241.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated Cafe with a wide selection of options, open from morning to night?</t>
+          <t>Day Plan:
+Morning: Explore Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. Marvel at the bustling atmosphere and witness the daily operations of the local fishing industry.
+Mid-Morning: Visit the nearby Maison d'Art Dr Lfn, a cultural center that offers a variety of cultural activities, including exhibitions, workshops, and performances. Immerse yourself in the local art scene.
+Midday: Try local cuisine at Fast Food ORORO, a highly-rated restaurant offering a wide range of food options. Savor the authentic flavors of Tunisian dishes.
+Afternoon: Take a guided tour of the Municipalite de Menzel Bourguiba, the administration municipale, and learn about the city's history and governance.
+Evening: Enjoy scenic views at Parc national d'Ichkel, a nature reserve around Lake Ichkeul. Stroll through the stunning landscapes, soak in the tranquility, and admire the diverse flora and fauna.
+Night: Indulge in a relaxing experience at Cafe la pausegout, a charming tea room. Sip on aromatic teas and unwind in the cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ben Mahmoud is a cafe located in Menzel Bourguiba, Tunisia, offering a cozy atmosphere and a variety of beverages. It is situated on Av. de L'independance, with coordinates (37.1582466, 9.7801053).
+Fast Food ORORO is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of food options, and is rated 4.8 out of 5 stars on Google. The restaurant is open every day of the week, and can be contacted at 22 737 104.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -774,12 +829,63 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Flamenco located at 5Q2V+RQP Cafe Flamenco, Menzel Bourguiba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: (37.151982, 9.7945418). For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Flamenco/data=!4m7!3m6!1s0x12e323f413687655:0x596835154e003dd7!8m2!3d37.1520808!4d9.7944581!16s%2Fg%2F11g_d3m3d!19sChIJVXZoE_Qj4xIR1z0AThU1aFk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Flamenco is a cafe located in Menzel Bourguiba. It is rated 4.0 stars out of 12 reviews and is open from 06:00 to 00:00 on weekdays. It offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 5Q2V+RQP, Menzel Bourguiba, and can be reached by phone at [NAN].</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated destination with a wide selection of Cafe options, making it a perfect spot for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the active fishing harbor at Port de Menzel Bourguiba.
+Mid-Morning: Visit the picturesque Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville for historical and architectural appreciation.
+Midday: Try local cuisine at Taco's restaurant for a delightful dining experience.
+Afternoon: Engage in outdoor activities like hiking or nature walks at Parc national d'Ichkel, known for its captivating scenery.
+Evening: Experience cultural immersion at the Maison d'Art Dr Lfn cultural center, offering a variety of exhibitions and workshops.
+Night: Relax with a massage or spa treatment at a local spa or hotel for rejuvenation.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Brazilia is a highly-rated (4.3/5) cafe located in Menzel Bourguiba, Tunisia. The cafe is open 24 hours a day and offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at coordinates (37.1531727, 9.7917907), which is at an elevation of 1186 meters above sea level.
+Club Fast Food KN chez Jamila is a restaurant in Menzel Bourguiba, Tunisia. Situated in Rue Imam Sahnoun (GPS coordinates 37.1489944, 9.788904), it serves up a menu of delicious food and is open from 8 am to 10 pm every day except Sunday.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -877,13 +983,73 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a top-rated cafe, check out Cafe la Sirene located at 5Q5M+34P Cafe la Sirene, Av. de L'independance, Menzel Bourguiba. 
-This cafe is perfect for coffee lovers and is a must-visit spot with a rating of 4.6. Explore their website at https://www.google.com/maps/place/Caf%C3%A9+la+Sir%C3%A9ne/data=!4m7!3m6!1s0x12e3238e46ab7a23:0xd0172018467d7763!8m2!3d37.157708!4d9.7828259!16s%2Fg%2F1hf418fwz!19sChIJI3qrRo4j4xIRY3d9RhggF9A?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>Café la Sirene is a highly-rated cafe located in Menzel Bourguiba, Tunisia. It boasts a cozy and inviting atmosphere, offering a delightful experience for patrons. With a rating of 4.6 based on 8 reviews, this establishment has earned the喜爱 of locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and craving a highly-rated coffee experience, what cafe with a rating of 4.6 should you visit?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the bustling Port de Menzel Bourguiba for a glimpse into local fishing culture.
+**Mid-Morning:**
+* Visit the Roti Express poultry restaurant for a local culinary experience.
+**Midday:**
+* Explore the historical Gare Ferroviaire de Menzel-Bourguiba, offering transportation and a glimpse into the city's past.
+**Afternoon:**
+* Indulge in the delicious crepes at Funky Monkey, a highly-rated creperie.
+**Evening:**
+* Immerse yourself in the lively atmosphere of Hollywood Stars restaurant, known for its grilled delicacies.
+**Night:**
+* Relax and unwind with a soothing tea at Cafe la pausegout before retiring to your hotel for the night.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe maryouma is a cafe located in Menzel Bourguiba, Tunisia. It is rated 4.5 stars on Google Maps and serves a variety of food and drinks. The cafe is owned by Cafe maryouma (proprietaire) and has an address of 84 Av. de L'independance, Menzel Bourguiba. The coordinates for the cafe are (37.156877620917, 9.785021641012).
+Restaurant Ayari Wassef is a highly-rated dining establishment located in Menzel Bourguiba, Tunisia. With a rating of 5.0 based on 7 reviews, the restaurant offers a delectable menu that has earned it a loyal following. Situated at 5Q4V+63J Ex. rue Charles de Gaulle, Restaurant Ayari Wassef is conveniently accessible to patrons seeking a culinary adventure.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -985,12 +1151,63 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great cafe, check out Cafe Ben Mahmoud located at 5Q5J+72W Cafe Ben Mahmoud, Av. de L'independance. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 04:30-23:30. To get there, use these GPS coordinates: 37.1582466, 9.7801053.</t>
+          <t>Cafe Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It offers a wide variety of coffee, tea, and other beverages, as well as a selection of food items such as sandwiches and pastries. The cafe is open from 4:30 AM to 11:30 PM every day and is located at 5Q5J+72W Cafe Ben Mahmoud, Av. de L'independance. Reviews praise its ambiance and friendly staff.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a 4.5 rating in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore Port de Menzel Bourguiba, the active fishing harbor for picturesque views.
+Mid-Morning: Visit the Maison d'Art Dr Lfn for cultural immersion in art exhibitions and workshops.
+Midday: Try local cuisine at Mozart, a highly-rated restaurant known for its culinary excellence.
+Afternoon: Enjoy scenic views and engage in outdoor activities like hiking or birdwatching at Parc National d'Ichkel.
+Evening: Relax and unwind with a massage at a local spa or hotel.
+Night: Experience Tunisia's vibrant nightlife at HolyMoly Restaurant, known for its 24-hour service and lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe la Sirene is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at coordinates (37.157683, 9.782854), the cafe offers a range of amenities, including a featured image, website, and owner information. With a rating of 4.6 based on 8 reviews, the cafe is highly recommended by customers.
+**Mozart**, a renowned restaurant situated in the heart of Menzel Bourguiba, is a haven for food enthusiasts. Located at the coordinates (37.1489944, 9.788904), it offers an unmatched dining experience from 9:00 AM to midnight daily. With a rating of 4.1 out of 5 based on 33 reviews, it's a testament to its culinary excellence. While its website and contact information remain unavailable, its featured image showcases the restaurant's chic ambiance and inviting atmosphere.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1096,14 +1313,69 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a great cafe, check out Cafe Iris located at 5Q6X+6QJ cafe iris. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website or call them at 22 827 702.</t>
+          <t>**Cafe Iris**
+Cafe Iris is a cafe situated in Menzel Bourguiba, Tunisia. Open from 05:00-00:00, it offers a variety of refreshments and meals. Located at the coordinates 37.1489944, 9.788904, it's a great spot to relax and enjoy delicious offerings.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated cafe with a variety of options, perfect for cafe enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the vibrant fishing harbor of **Port de Menzel Bourguiba**, soaking in the sights and sounds of the active fishing community.
+**Mid-Morning:**
+* Visit the **Eraroui** for a taste of authentic Tunisian cuisine. Indulge in flavorful dishes while interacting with the friendly locals.
+**Midday:**
+* Take a guided tour of the historic **Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville**. Admire the intricate architecture and learn about its significance.
+**Afternoon:**
+* Escape the bustle and head to **Parc National d'Ichkel**. Immerse yourself in nature on a leisurely hike along picturesque trails, observing the diverse flora and fauna.
+**Evening:**
+* Relax and unwind at the **Funky Monkey**, a cozy creperie offering mouthwatering crepes and a charming ambiance.
+**Night:**
+* Experience the vibrant atmosphere at **Taco's**, a local favorite serving delicious tacos and other Mexican dishes.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at the coordinates (37.1489944, 9.788904), it is a popular destination for locals and tourists alike. The cafe offers a warm and inviting ambiance, with friendly staff and a great selection of drinks and snacks. Its convenient location makes it an ideal place to relax and unwind while exploring the city.
+Mozart is a restaurant located in Menzel Bourguiba, Tunisia, at coordinates (37.1489944, 9.788904). It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant has a cozy atmosphere and friendly staff, and it is a popular spot for locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1205,12 +1477,67 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated cafe, check out Octa. Located at Av. de l'Independance, Menzel Bourguiba, this destination is perfect for cafe lovers. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 04:30-01:00. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/Octa/data=!4m7!3m6!1s0x12e323766ca5f1b5:0x8a75859b771d130d!8m2!3d37.1570294!4d9.7838657!16s%2Fg%2F11t1h1h8sx!19sChIJtfGlbHYj4xIRDRMdd5uFdYo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Octa is a highly rated cafe located in Menzel Bourguiba, Tunisia. It opens from 4:30 AM to 1:00 AM and offers a wide range of food and drinks. The cafe's exact location is at coordinates (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe named Octa in Menzel Bourguiba, boasting a 4.8 rating and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the bustling fishing harbor at Port de Menzel Bourguiba.
+Mid-Morning: Satisfy your taste buds with authentic local cuisine at Taco's, known for its delicious tacos and crepes.
+Midday: Visit the historic Municipalite de Menzel Bourguiba, the local administration building, to learn about the city's governance.
+Afternoon: Immerse yourself in breathtaking natural beauty at Parc national d'Ichkel, a haven for nature enthusiasts, offering stunning panoramic views of Lake Ichkeul's diverse ecosystem.
+Evening: Indulge in a delightful dinner at Roti Express, renowned for its exceptional poultry dishes and impeccable service.
+Night: Relax and unwind with a soothing massage at a spa or retreat in Menzel Bourguiba, ensuring a rejuvenating end to your day.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Brazilia is a highly-rated (4.3/5) cafe located in Menzel Bourguiba, Tunisia. The cafe is open 24 hours a day and offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at coordinates (37.1531727, 9.7917907), which is at an elevation of 1186 meters above sea level.
+La Couronne is a 4.5-rated restaurant located in Menzel Bourguiba, Tunisia. It is open daily from 8 am to 11 pm and offers a variety of dining options in a cozy and welcoming atmosphere. The restaurant is known for its delicious food, friendly staff, and convenient location, making it a popular destination for both locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1316,14 +1643,63 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Ennour located at 5Q2Q+576 Cafe Ennour, Unnamed Road, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Ennour/data=!4m7!3m6!1s0x12e3238ae4ec665d:0xf2c230912ffcd144!8m2!3d37.1504242!4d9.7881447!16s%2Fg%2F11g6_v96lc!19sChIJXWbs5Ioj4xIRRNH8L5EwwvI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 519 566.</t>
+          <t>Cafe Ennour is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at the coordinates (37.1489944, 9.788904), it is a popular destination for locals and tourists alike. The cafe offers a warm and inviting ambiance, with friendly staff and a great selection of drinks and snacks. Its convenient location makes it an ideal place to relax and unwind while exploring the city.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe with a 5.0 rating, perfect for Cafe enthusiasts, in the picturesque town of Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the bustling port of Port de Menzel Bourguiba, where you can witness the vibrant fishing industry and capture the essence of this seaside town.
+Mid-Morning: Indulge in the local culinary delights at Taco's, renowned for its exquisite tacos, crepes, and desserts.
+Midday: Visit the historical landmark Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful Catholic church that showcases the architectural heritage of Menzel Bourguiba.
+Afternoon: Head to Parc national d'Ichkel, a breathtaking natural reserve, and embark on a captivating hike amidst stunning landscapes, discovering the rich flora and fauna that this park has to offer.
+Evening: Experience the lively ambiance of Funky Monkey, a highly-rated creperie known for its delicious crepes and cozy atmosphere.
+Night: Immerse yourself in the cultural heritage of Menzel Bourguiba by visiting the Maison d'Art Dr Lfn, a cultural center that hosts various exhibitions, workshops, and performances.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café la Sirene is a highly-rated cafe located in Menzel Bourguiba, Tunisia. It boasts a cozy and inviting atmosphere, offering a delightful experience for patrons. With a rating of 4.6 based on 8 reviews, this establishment has earned the喜爱 of locals and visitors alike.
+Nestled in the charming town of Menzel Bourguiba, the highly-rated Restaurant Chaabene awaits patrons. Boasting a welcoming atmosphere and delectable cuisine, this establishment has earned a 4.8-star rating from satisfied diners. With its convenient location at 5Q3W+4QX on Boulevard Saadi Carnot, Restaurant Chaabene is easily accessible to both locals and visitors.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1425,14 +1801,62 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out cafe gouider located at 5Q4G+F92 cafe gouider, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:00-01:00. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>**Cafe Gouider** is a highly-rated cafe located in Menzel Bourguiba, Tunisia (coordinates: 37.1489944, 9.788904). Operating from 4:00 AM to 1:00 AM, the cafe offers a cozy ambiance and a welcoming atmosphere. Despite the lack of an official website or contact information, Cafe Gouider has garnered positive reviews for its inviting atmosphere and friendly service.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café with a wide selection of options and convenient hours in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the active fishing harbor at Port de Menzel Bourguiba.
+Mid-Morning: Indulge in a delightful breakfast and soak in the ambiance at Cafe la pausegout.
+Midday: Visit the Municipalite de Menzel Bourguiba for a glimpse into local governance.
+Afternoon: Immerse in nature and witness the beauty of Parc national d'Ichkel.
+Evening: Savor authentic Tunisian cuisine at the highly-rated Chez Rzouga restaurant.
+Night: Relax and enjoy the vibrant atmosphere at Cafe Flamenco.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Flamenco**, located in Menzel Bourguiba at coordinates (37.151982, 9.7945418), is a café offering a relaxing ambiance to its customers. The establishment is open from 6am to midnight on weekdays and closed on weekends. Customers can enjoy a variety of café offerings while soaking in the atmosphere of the establishment.
+Chez Rzouga restaurant is a highly-rated eatery in menzel bourguiba, receiving a 4.1-star rating from 8 reviews. Renowned for its mouth-watering dishes, it's situated conveniently at 5Q3W+R29, Av. de l'Independance in menzel bourguiba 7050. The restaurant is operational from 09:00 to 14:00 during weekdays, but remains closed on Sundays.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1534,12 +1958,67 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a great cafe experience, check out Cafe Brazilia. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.3, it's a must-visit spot in the city. Experience the joy of sipping on your favorite beverage and savoring the delectable bites they have to offer. Cafe Brazilia is open 24 hours, so you can visit anytime to satisfy your cafe cravings. To get there, use these GPS coordinates: 37.1531727, 9.7917907. Visit their website for more details or call them to make any inquiries.</t>
+          <t>Café Brazilia is a highly-rated (4.3/5) cafe located in Menzel Bourguiba, Tunisia. The cafe is open 24 hours a day and offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at coordinates (37.1531727, 9.7917907), which is at an elevation of 1186 meters above sea level.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated cafe in Menzel Bourguiba that is open 24/7, offering a delightful ambiance and a diverse menu of cafe treats?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Municipalite de Menzel Bourguiba.
+Mid-Morning: Indulge in traditional Tunisian cuisine at Taco's, known for its flavorful tacos.
+Midday: Visit the historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville for a glimpse of local architecture.
+Afternoon: Stroll through the scenic Parc National d'Ichkel, immersing in its diverse flora and fauna.
+Evening: Experience the lively ambiance of Octa, a highly-rated cafe known for its cozy atmosphere.
+Night: Enjoy a memorable dinner at L"escale, offering a wide variety of dishes in a relaxed setting.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Octa** is a highly-rated cafe located in Menzel Bourguiba, Tunisia. With a 4.8-star rating based on 4 reviews, Octa is known for its excellent service and cozy ambiance. Situated conveniently on Av. de l'Independance, the cafe is open from 4:30 AM to 1:00 AM daily, catering to customers with various needs.
+L"escale is a restaurant located in Menzel Bourguiba, Tunisia. It has a 4.5-star rating on Google and offers a wide variety of dishes. The restaurant is open from 9am to 11pm, and is closed on Sundays. L"escale is located at 37.1489944, 9.788904.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1637,14 +2116,67 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe maryouma located at 84 Av. de L'independance, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/Cafe+maryouma/data=!4m7!3m6!1s0x12e323b0e1551fb9:0x645c1779e3d6f58d!8m2!3d37.1593071!4d9.7724747!16s%2Fg%2F11kjp3vsm4!19sChIJuR9V4bAj4xIRjfXW43kXXGQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe maryouma is a cafe located in Menzel Bourguiba, Tunisia, at the coordinates (37.156877620917, 9.785021641012). It has a rating of 4.5 stars and offers a variety of beverages and snacks.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Which top-rated cafe in Menzel Bourguiba is a must-visit for its exceptional range of cafe options and its convenient location near 84 Av. de L'independance?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Port de Menzel Bourguiba, where you can witness the lively fishing activity and take in the fresh sea air.
+Mid-Morning: Visit the Municipalite de Menzel Bourguiba and learn about the local administration and history.
+Midday: Savor a delightful meal at Taco's, a well-renowned restaurant known for its authentic Mexican flavors.
+Afternoon: Indulge in some retail therapy at the local market, where you can find unique souvenirs and local crafts.
+Evening: Take a guided tour of the Gare Ferroviaire de Menzel-Bourguiba, a historic train station that serves as a gateway to the city.
+Night: Experience the vibrant ambiance of HolyMoly Restaurant, a fast-food eatery with high ratings and a wide selection of dishes.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Angolo d'Or** is a well-rated cafe located in Menzel Bourguiba, Tunisia. It offers a variety of amenities, including Wi-Fi, outdoor seating, and live music. The cafe is open 24 hours a day, 7 days a week, and is located at coordinates (37.156877620917, 9.785021641012).
+Lablebi 2 is a restaurant located in Menzel Bourguiba (37.1489944, 9.788904). The restaurant is highly rated with a score of 5.0 out of 5, based on one review.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1742,14 +2274,62 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe azouzi located at 6Q34+H55 Cafe azouzi, P11, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their link at https://www.google.com/maps/place/Caf</t>
+          <t>Cafe azouzi is a cafe located in menzel bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The cafe has a good rating of 4.0 and offers a variety of services and products.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café with a wide selection of coffee and a 4.0 rating in the Menzel Bourguiba area?</t>
+          <t>Day Plan:
+Morning: Explore Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia.
+Mid-Morning: Visit the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church.
+Midday: Treat yourself to a delightful lunch at HolyMoly Restaurant, offering a variety of fast-food options.
+Afternoon: Head to Parc national d'Ichkel, a nature reserve around Lake Ichkeul, and enjoy hiking and wildlife viewing opportunities.
+Evening: Try local cuisine at Taco's, a popular spot for locals and tourists alike, offering a variety of tacos and other Mexican dishes.
+Night: Relax and unwind at Cafe La Sirene, a highly-rated cafe with 4.6 stars and 8 reviews, situated in the heart of Menzel Bourguiba.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Sirene is a highly rated establishment with 4.6 stars and 8 reviews. Located at longitude 9.782854 and latitude 37.157683, this cafe is situated in the heart of Menzel Bourguiba.
+Cafe Resto L'mama is a 4.8-star restaurant located in Menzel Bourguiba, Tunisia. It's on rue de la republique and serves cuisine in the Restaurant category.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1851,12 +2431,67 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out mozart located at 5Q5Q+JHX mozart, Ex. rue Colbert, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on . To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at  or call them at .</t>
+          <t>Mozart is a restaurant located in Menzel Bourguiba at the coordinates (37.1489944, 9.788904). It has a rating of 4.1 out of 5 and is open from 9 am to midnight. The categories associated with this establishment are "Restaurant" and no review keywords are mentioned in the provided data.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>What top-rated restaurant in Menzel Bourguiba offers a range of dining options for restaurant enthusiasts, making it a must-visit destination?</t>
+          <t>Day Plan:
+Morning: Exploring Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea.
+Mid-Morning: Trying local cuisine at Taco's, a restaurant offering a variety of dishes, including tacos, crepes, and desserts, with a 4.5-star rating and known for its great food and service.
+Midday: Visiting Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church, a popular tourist destination.
+Afternoon: Enjoying a relaxing moment with a delicious tea at Cafe la pausegout, a tea room situated in Menzel Bourguiba.
+Evening: Participating in the lively ambiance at Funky Monkey, a highly-rated creperie in Menzel Bourguiba, offering a cozy atmosphere and an excellent culinary experience.
+Night: Experiencing cultural immersion at the Maison d'Art Dr Lfn, a cultural center offering exhibitions, workshops, and performances.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It offers a wide variety of coffee, tea, and other beverages, as well as a selection of food items such as sandwiches and pastries. The cafe is open from 4:30 AM to 11:30 PM every day and is located at 5Q5J+72W Cafe Ben Mahmoud, Av. de L'independance. Reviews praise its ambiance and friendly staff.
+Cafe Resto L'mama is a restaurant located in Menzel Bourguiba, Tunisia. It has a 4.8 rating based on 5 reviews. The restaurant's coordinates are (37.154257804163, 9.790884531968).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1962,12 +2597,67 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Sidi Yahia at 5Q7M+HFR Cafe Sidi Yahia, Unnamed Road, Menzel Bourguiba. This top-rated destination is perfect for Cafe enthusiasts and offers a range of Cafe categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Sidi+Yahia/data=!4m7!3m6!1s0x12e323e0dfb4b8cd:0x8744f656725eec5f!8m2!3d37.163979!4d9.7836299!16s%2Fg%2F11h1m585rs!19sChIJzbi03-Aj4xIRX-xeclb2RIc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 532 241.</t>
+          <t>Cafe Sidi Yahia is a cafe located in Menzel Bourguiba, Tunisia, with a rating of 4.3 stars out of 19 reviews. It is open daily from 6:00 AM to 11:00 PM and offers a variety of cafe and snack options. The cafe is located at the coordinates (37.1489944, 9.788904) and can be contacted by phone at 99 532 241.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find Cafe Sidi Yahia, a top-rated destination perfect for Cafe enthusiasts offering a wide selection of Cafe options?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Port de Menzel Bourguiba, a bustling fishing harbor with breathtaking views.
+Mid-Morning: Indulge in local flavors at Taco's, a renowned restaurant offering an array of delicious tacos and Mexican dishes.
+Midday: Visit the Municipalite de Menzel Bourguiba, the city's administration center, to witness local governance in action.
+Afternoon: Immerse yourself in the beauty of Parc national d'Ichkel, a stunning ornithological and natural reserve featuring diverse flora and fauna.
+Evening: Experience the vibrant atmosphere of Cafe Ennour, a well-rated cafe with a warm ambiance and a selection of refreshing drinks and snacks.
+Night: Relax and rejuvenate at Hollywood stars, a cafe and grill with a cozy ambiance and delicious food options.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at the coordinates (37.1489944, 9.788904), it is a popular destination for locals and tourists alike. The cafe offers a warm and inviting ambiance, with friendly staff and a great selection of drinks and snacks. Its convenient location makes it an ideal place to relax and unwind while exploring the city.
+Nestled in the charming town of Menzel Bourguiba, the highly-rated Restaurant Chaabene awaits patrons. Boasting a welcoming atmosphere and delectable cuisine, this establishment has earned a 4.8-star rating from satisfied diners. With its convenient location at 5Q3W+4QX on Boulevard Saadi Carnot, Restaurant Chaabene is easily accessible to both locals and visitors.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2073,13 +2763,67 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a delightful dining experience, visit Taco's, located at Av. de L'independance.
-This popular restaurant specializes in tacos and also offers crepes and desserts. With a high rating of 4.5, Taco's is a must-visit destination for food enthusiasts. They are open from 11:00 AM to 9:30 PM during the week and are closed on Tuesdays. For convenient access, check out their website or call them at 90 314 227.</t>
+          <t>Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>If you're exploring Menzel Bourguiba and seeking a delectable dining experience, where should you head to for a highly rated menu featuring tacos, crepes, and desserts?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Port de Menzel Bourguiba, witnessing the lively fishing activities on the Mediterranean Sea.
+Mid-Morning: Indulge in the local flavors at Taco's, a popular eatery offering a delectable array of tacos, crepes, and desserts.
+Midday: Visit the historical Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a stunning Catholic church that showcases architectural grandeur and religious significance.
+Afternoon: Unwind and enjoy the scenic beauty of Parc national d'Ichkel, an ornithological and natural reserve that offers opportunities for hiking and observing diverse flora and fauna.
+Evening: Experience a culinary delight at Restaurant Ayari Wassef, a highly-rated dining establishment known for its exquisite menu and exceptional service.
+Night: Immerse yourself in the local culture at Maison d'Art Dr Lfn, a cultural center hosting exhibitions, workshops, and performances that provide insights into the city's art and heritage.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Flamenco is a cafe located in Menzel Bourguiba, Tunisia. It is open from 6am to midnight and offers a variety of food and drinks. The cafe is rated 4.0 out of 5 stars on Google and has received 12 reviews.
+Restaurant Ayari Wassef is a highly-rated dining establishment located in Menzel Bourguiba, Tunisia. With a rating of 5.0 based on 7 reviews, the restaurant offers a delectable menu that has earned it a loyal following. Situated at 5Q4V+63J Ex. rue Charles de Gaulle, Restaurant Ayari Wassef is conveniently accessible to patrons seeking a culinary adventure.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2181,14 +2925,68 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Cafe, check out Cafe Flamenco located at 5Q2V+RQP Cafe Flamenco, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 37.151982, 9.7945418. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Flamenco/data=!4m7!3m6!1s0x12e323f413687655:0x596835154e003dd7!8m2!3d37.1520808!4d9.7944581!16s%2Fg%2F11g_d3m3d!19sChIJVXZoE_Qj4xIR1z0AThU1aFk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Café Flamenco is a cafe located in Menzel Bourguiba, Tunisia. It is open from 6am to midnight and offers a variety of food and drinks. The cafe is rated 4.0 out of 5 stars on Google and has received 12 reviews.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated Cafe Flamenco in Menzel Bourguiba with a rating of 4.0 and extended operating hours from 06:00 to 00:00?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the bustling local market, discovering unique and traditional Tunisian products.
+**Mid-Morning:**
+- Visit the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, admiring its architectural beauty and historic significance.
+**Midday:**
+- Savor authentic Tunisian flavors at the highly-rated Taco's, known for its delicious tacos and friendly atmosphere.
+**Afternoon:**
+- Escape the hustle and bustle at Parc national d'Ichkel, immersing yourself in nature and exploring its diverse flora and fauna.
+**Evening:**
+- Enjoy a romantic dinner at La Couronne, renowned for its exceptional culinary creations and elegant ambiance.
+**Night:**
+- Relax with a soothing massage at a local spa, rejuvenating both body and mind after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe is a 4.3-rated cafe located at 5Q5G+FQX Cafe, Av. de L'independance, Menzel Bourguiba. The cafe is open from 5 am to 11 pm and offers a variety of food and drinks. It is located at the coordinates (37.156877620917, 9.785021641012).
+La Couronne is a restaurant located in Menzel Bourguiba, Tunisia, offering a delectable culinary experience. It boasts a 4.5-star rating, indicating its exceptional offerings. Situated at coordinates (37.156877620917, 9.785021641012), it is easily accessible. Despite the lack of additional information, La Couronne is a highly recommended destination for those seeking a delightful dining experience.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2286,12 +3084,62 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe la Sirene located at 5Q5M+34P Cafe la Sirene, Av. de L'independance, Menzel Bourguiba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 37.157683, 9.782854.</t>
+          <t>Cafe la Sirene is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at coordinates (37.157683, 9.782854), the cafe offers a range of amenities, including a featured image, website, and owner information. With a rating of 4.6 based on 8 reviews, the cafe is highly recommended by customers.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly rated cafe known for its exceptional Cafe selection?</t>
+          <t>Day Plan:
+Morning: Explore the bustling harbor of Port de Menzel Bourguiba, a hub of fishing and maritime activities.
+Mid-Morning: Indulge in a local culinary experience at Taco's, renowned for its tantalizing tacos, crepes, and desserts.
+Midday: Visit the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a historic and architecturally stunning Catholic church.
+Afternoon: Stroll through Parc National d'Ichkel, a sanctuary for birdwatchers and nature enthusiasts, boasting diverse hiking trails.
+Evening: Savor exquisite poultry dishes at Roti Express, known for its exceptional cuisine and warm hospitality.
+Night: Immerse yourself in the local ambiance at Café Flamenco, a vibrant cafe offering a delectable selection of food and drinks.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Flamenco is a cafe located in Menzel Bourguiba, Tunisia. It is open from 6am to midnight and offers a variety of food and drinks. The cafe is rated 4.0 out of 5 stars on Google and has received 12 reviews.
+Restaurant nouri, located at 5Q4V+7X8 rue Victor Hugo, Menzel Bourguiba, Tunisia, is a highly-rated restaurant (5.0 stars) specializing in local cuisine. It has a convenient location for those looking for a dining experience in the area.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2393,14 +3241,67 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Cafe experience, check out Cafe ben Fattoum located at 4QXR+P36 Cafe ben Fattoum, Menzel Bourguiba. 
-This top-rated destination is a must-visit spot for Cafe lovers and offers a range of Cafe options to choose from. 
-With a rating of 4.3, it's open 24 hours a day, so you can visit it anytime. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>Cafe Ben Fattoum is a cafe located in Menzel Bourguiba, Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious coffee and friendly service. The cafe is open 24 hours a day, so you can enjoy a cup of coffee or tea any time of day or night. It is located at 4QXR+P36 Cafe ben Fattoum, Menzel Bourguiba.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>What highly-rated Cafe, open 24 hours a day, is a must-visit destination for Cafe lovers in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Exploring Port de Menzel Bourguiba
+Mid-Morning: Trying local cuisine at Cafe LE MARIN
+Midday: Visiting the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville
+Afternoon: Enjoying scenic views at Parc national d'Ichkel
+Evening: Relaxing with a massage at Maison d'Art Dr Lfn
+Night: Experiencing cultural immersion at HolyMoly Restaurant</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe LE MARIN** is a well-reviewed cafe located in Menzel Bourguiba, approximately at (37.1483491, 9.7895079). It has a 5.0 rating based on 3 reviews and falls under the category of Cafe. The cafe is open from 4:00 AM to midnight and can be contacted at 97 303 107 for any inquiries or reservations.
+Restaurant Manchou is a restaurant located in Menzel Bourguiba, Tunisia (37.1489944, 9.788904). It has a rating of 4.9 based on 14 reviews and offers a variety of dishes.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2506,12 +3407,62 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great place to eat, check out HolyMoly Restaurant located at HolyMoly Restaurant, Menzel Bourguiba. This top-rated destination is perfect for Restauration rapide lovers and is open 24 hours a day. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, call them at 25 123 580.</t>
+          <t>HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where is the top-rated Restauration rapide destination in Menzel Bourguiba with extended hours and GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea.
+Mid-Morning: Trying local cuisine at Taco's, a highly-rated restaurant offering a variety of tacos and Mexican dishes.
+Midday: Visiting Municipalite de Menzel Bourguiba, the local administration building, to gain insights into the city's governance.
+Afternoon: Enjoying a scenic walk or bike ride along the picturesque Parc national d'Ichkel, renowned for its ornithological significance and natural beauty.
+Evening: Relaxing with a traditional tea at Cafe la pausegout while immersing in the local ambiance.
+Night: Experiencing cultural immersion at the Maison d'Art Dr Lfn, a cultural center offering exhibitions, workshops, and performances.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe des Pyramides, located in Menzel Bourguiba at coordinates (37.156877620917, 9.785021641012), is a cafe with a 4.0 rating. It operates daily from 3:00am to 11:00pm and offers a variety of cafe-related services.
+La Couronne is a 4.5-rated restaurant located in Menzel Bourguiba, Tunisia. It is open daily from 8 am to 11 pm and offers a variety of dining options in a cozy and welcoming atmosphere. The restaurant is known for its delicious food, friendly staff, and convenient location, making it a popular destination for both locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2613,12 +3564,62 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated cafe to relax and enjoy a delicious beverage, check out Cafe Ben Mahmoud located at 5Q5J+72W Cafe Ben Mahmoud, Av. de L'independance, Menzel Bourguiba. This popular destination is perfect for cafe lovers and offers a delicious range of cafe drinks and snacks to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 04:30-23:30, but closed on []. To get there, use these GPS coordinates: 37.1582466, 9.7801053.</t>
+          <t>Café Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It is known for its welcoming atmosphere, friendly staff, and delicious coffee. The cafe is open from 4:30 am to 11:30 pm, making it a great place to grab a morning coffee or relax with friends in the evening. Café Ben Mahmoud is also a great place to people-watch, as it is located on a busy street. The cafe is easy to find, as it is located just off the main road.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you find a popular cafe in Menzel Bourguiba known for its excellent cafe drinks and snacks, making it a highly rated destination with a 4.5 rating?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the picturesque Port de Menzel Bourguiba (Fishing Harbor), a bustling hub of fishing activities with stunning views of the Mediterranean Sea.
+Mid-Morning: Immerse yourself in the local culinary scene by trying authentic Tunisian cuisine at Restaurant Manchou, renowned for its excellent food and high ratings.
+Midday: Visit the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a captivating Catholic church that showcases stunning architecture and historical significance, offering a serene sanctuary amidst the vibrant town.
+Afternoon: Discover the natural beauty of Parc National d'Ichkel, a breathtaking nature reserve boasting diverse flora and fauna around Lake Ichkeul. Enjoy hiking trails and exceptional wildlife viewing opportunities in this UNESCO World Heritage site.
+Evening: Indulge in a culinary adventure at Taco's, a popular spot known for its delectable tacos and Mexican dishes. Savor the vibrant flavors and enjoy a delightful dining experience.
+Night: Experience the热闹氛围 of HolyMoly Restaurant, a fast-paced eatery serving a variety of fast food options. Relax and enjoy the lively atmosphere as you relish delicious meals.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ben Fattoum is a cafe located in Menzel Bourguiba, Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious coffee and friendly service. The cafe is open 24 hours a day, so you can enjoy a cup of coffee or tea any time of day or night. It is located at 4QXR+P36 Cafe ben Fattoum, Menzel Bourguiba.
+Restaurant Manchou is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, and is rated 4.9 out of 5 stars on Google. The restaurant is located at 5Q3V+HPC Restaurant Manchou, rue de Corse, Menzel Bourguiba.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2720,14 +3721,67 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great cafe experience, check out Cafe Elmadina located at 5Q2R+FC8 Cafe Elmadina,. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:30, but closed on []. To get there, use these GPS coordinates: 37.154, 9.80059.</t>
+          <t>Cafe Elmadina is a cafe located in Menzel Bourguiba, Tunisia at the coordinates of 37.154, 9.80059. It has received an average rating of 4.0 from reviewers, is open from 6:00 AM to 11:30 PM on weekdays, and offers a variety of cafe-related amenities.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café experience with a variety of options in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Exploring Menzel Bourguiba city center
+Mid-Morning: Trying local cuisine at Restaurant Nouri, a highly-rated spot specializing in local flavors (5.0 stars)
+Midday: Visiting the Gare Routiere de Menzel-Bourguiba for a glimpse into the city's transportation hub (4.0 stars)
+Afternoon: Relaxing with a cup of tea at Cafe la pausegout (4.5 stars)
+Evening: Participating in a cultural immersion at the Maison d'Art Dr Lfn featuring exhibitions and workshops
+Night: Enjoying scenic views at the Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe azouzi is a cafe located in menzel bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The cafe has a good rating of 4.0 and offers a variety of services and products.
+Restaurant nouri, located at 5Q4V+7X8 rue Victor Hugo, Menzel Bourguiba, Tunisia, is a highly-rated restaurant (5.0 stars) specializing in local cuisine. It has a convenient location for those looking for a dining experience in the area.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2833,17 +3887,62 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba searching for a top-rated Cafe, check out cafe iris. 
-Located at 5Q6X+6QJ , it's the go-to spot for Cafe enthusiasts. 
-With a 4.0 rating, it offers a range of categories to choose from. 
-It's open from 05:00-00:00, so drop by for a memorable experience. 
-To get there, use these GPS coordinates: 37.1489944, 9.788904. 
-For more details, call them at 22 827 702.</t>
+          <t>Café Iris is a cozy cafe located in Menzel Bourguiba, Tunisia. Open from 5 AM to midnight, it offers a warm and welcoming atmosphere for locals and tourists alike. The cafe serves a variety of beverages, including coffee, tea, and fresh juices. In addition, Café Iris offers a selection of pastries and light snacks, making it a great spot for a quick bite or a leisurely afternoon break. With its convenient location and friendly staff, Café Iris is a popular destination for those looking for a relaxing cup of coffee or a casual gathering place.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>In Menzel Bourguiba, where can you find a highly-rated cafe with a vast selection of options, situated at a specific GPS location and open with extended hours?</t>
+          <t>Day Plan:
+Morning: Exploring the vibrant streets of Menzel Bourguiba, taking in the local sights and sounds at the bustling market.
+Mid-Morning: Savoring authentic Tunisian cuisine at Cafe azouzi, renowned for its delicious offerings and warm ambiance.
+Midday: Visiting the historic and sacred Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, admiring its architectural beauty and rich history.
+Afternoon: Enjoying a relaxing stroll through the picturesque Parc National d'Ichkel, immersing in the tranquil surroundings and the diverse flora and fauna.
+Evening: Experiencing the vibrant atmosphere at funky Monkey, indulging in delectable crepes and relishing the lively ambiance.
+Night: Exploring the flavors of Tunisia at Restaurant Chaabene, tantalizing the taste buds with a symphony of culinary delights and exceptional service.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe azouzi is a cafe located in menzel bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The cafe has a good rating of 4.0 and offers a variety of services and products.
+Restaurant Chaabene is a highly-rated restaurant in Menzel Bourguiba, Tunisia, boasting a rating of 4.8 out of 5 stars. Open daily from 9 AM to 11 PM, it offers a diverse menu of culinary delights. Situated at the coordinates (37.1489944, 9.788904) on blvd Saadi Carnot, Restaurant Chaabene attracts diners with its delicious food and friendly service, making it a popular destination for locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2949,12 +4048,73 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a great cafe, check out Cafe Angolo D'OR located at 5Q59+VQJ Av. de L'independance. This top-rated spot is perfect for anyone looking for a cafe and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open daily from 4:00 AM to midnight. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+angolo+d%27or/data=!4m7!3m6!1s0x12e32382c7d1e28f:0xe449dc9ef735c7a7!8m2!3d37.159702!4d9.7693826!16s%2Fg%2F11bzwnmhvm!19sChIJj-LRx4Ij4xIRp8c1957cSeQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 95 999 959.</t>
+          <t>**Cafe Angolo d'Or** is a well-rated cafe located in Menzel Bourguiba, Tunisia. It offers a variety of amenities, including Wi-Fi, outdoor seating, and live music. The cafe is open 24 hours a day, 7 days a week, and is located at coordinates (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a top-rated cafe that is open daily and offers various categories?</t>
+          <t>Day Plan:
+**Morning:**
+- Take a guided tour of the Municipalite de Menzel Bourguiba for insights into local governance and administration.
+**Mid-Morning:**
+- Explore the Parc National d'Ichkel for a leisurely hike amidst stunning natural beauty while observing its rich birdlife.
+**Midday:**
+- Savor authentic Tunisian cuisine at Club Fast Food KN chez Jamila, known for its delicious menu and friendly atmosphere.
+**Afternoon:**
+- Visit the historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville to admire its architectural grandeur and delve into its religious significance.
+**Evening:**
+- Experience the vibrant ambiance of Funky Monkey, indulging in delectable crepes while soaking in the lively atmosphere.
+**Night:**
+- End the day with a relaxing stay at Hotel Hollywood, enjoying the comfort and amenities it offers for a perfect night's rest.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Hammadi is located in Menzel Bourguiba, Tunisia. It is a cafe that offers its customers a variety of food and beverages. It gets 5.0/5 ratings on Google and is open from 6:00 am to 9:00 pm.
+Club Fast Food KN chez Jamila is a restaurant in Menzel Bourguiba, Tunisia. Situated in Rue Imam Sahnoun (GPS coordinates 37.1489944, 9.788904), it serves up a menu of delicious food and is open from 8 am to 10 pm every day except Sunday.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3052,12 +4212,62 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a place to eat, check out fTyr bw`wn located at rue de Corse, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/%D9%81%D8%B7%D8%A7%D9%8A%D8%B1+%D8%A8%D9%88%D8%B9%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x12e323000593502f:0xa41eeda5851105fd!8m2!3d37.1540595!4d9.7941231!16s%2Fg%2F11h52n0y8b!19sChIJL1CTBQAj4xIR_QURhaXtHqQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has received positive reviews from customers, earning a rating of 5.0 out of 5. The restaurant is located at the coordinates (37.1489944, 9.788904).</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a 5.0 rating in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea.
+Mid-Morning: Visit the Maison d'Art Dr Lfn, a cultural center that showcases exhibitions, workshops, and performances.
+Midday: Try the local cuisine at Roti Express, a highly-rated restaurant that serves delicious poultry dishes.
+Afternoon: Enjoy a peaceful walk in the Parc national d'Ichkel, a nature reserve around Lake Ichkeul that offers hiking and wildlife viewing opportunities.
+Evening: Experience traditional Tunisian ambiance and flavors at Taco's, a popular restaurant known for its tacos, crepes, and desserts.
+Night: Relax and unwind with a calming tea session at Cafe la pausegout, a tea room that has received a 4.5-star rating for its cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Flamenco is a cafe located in Menzel Bourguiba. It is rated 4.0 stars out of 12 reviews and is open from 06:00 to 00:00 on weekdays. It offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 5Q2V+RQP, Menzel Bourguiba, and can be reached by phone at [NAN].
+Fast Food ORORO is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of food options, and is rated 4.8 out of 5 stars on Google. The restaurant is open every day of the week, and can be contacted at 22 737 104.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3155,14 +4365,11 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Resto L'mama located at 5Q4V+M63 Cafe Resto L'mama, rue de la republique, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. For more details, visit their website at  or call them at .</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>If you're visiting Menzel Bourguiba and seeking a highly-rated destination for Restaurant enthusiasts, where can you find a top-rated spot offering a diverse selection of dining options?</t>
-        </is>
-      </c>
+          <t>Cafe Resto L'mama is a restaurant located in Menzel Bourguiba, Tunisia. It has a 4.8 rating based on 5 reviews, and is praised for its food and service. The restaurant is owned by Cafe Resto L'mama (proprietaire).</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3262,12 +4469,63 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a great cafe to relax in, check out Octa located at Av. de l'Independance. This top-rated destination is perfect for cafe lovers with a rating of 4.8. It's open during these hours: 04:30-01:00. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/Octa/data=!4m7!3m6!1s0x12e323766ca5f1b5:0x8a75859b771d130d!8m2!3d37.1570294!4d9.7838657!16s%2Fg%2F11t1h1h8sx!19sChIJtfGlbHYj4xIRDRMdd5uFdYo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Octa** is a highly-rated cafe located in Menzel Bourguiba, Tunisia. With a 4.8-star rating based on 4 reviews, Octa is known for its excellent service and cozy ambiance. Situated conveniently on Av. de l'Independance, the cafe is open from 4:30 AM to 1:00 AM daily, catering to customers with various needs.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe (4.8) in Menzel Bourguiba, perfect for relaxation and offering an inviting atmosphere?</t>
+          <t>Day Plan:
+Morning: Exploring the bustling fishing harbor at Port de Menzel Bourguiba.
+Mid-Morning: Trying local cuisine at the highly-rated Chez Rzouga, known for its flavorful dishes.
+Midday: Visiting the majestic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a historic and beautiful Catholic church.
+Afternoon: Enjoying a leisurely stroll through the Parc National d'Ichkel, soaking in the beauty of the natural landscapes.
+Evening: Indulging in a delectable dinner at Taco's, famous for its mouthwatering tacos and crepes.
+Night: Relaxing with a cozy atmosphere and sipping on refreshing drinks at the well-rated Cafe Ennour, ending the day on a tranquil note.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at the coordinates (37.1489944, 9.788904), it is a popular destination for locals and tourists alike. The cafe offers a warm and inviting ambiance, with friendly staff and a great selection of drinks and snacks. Its convenient location makes it an ideal place to relax and unwind while exploring the city.
+Chez Rzouga is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has a rating of 4.1 stars on Google Maps. The restaurant is open from 9:00 AM to 2:00 PM during the weekdays and is closed on Sundays. It is located at the coordinates (37.156877620917, 9.785021641012).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3369,16 +4627,66 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated cafe, check out Cafe des Pyramides located at 5Q5H+HFH Cafe des Pyramides, Av. de L'independance. 
-This cafe is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 03:00-23:00. 
-To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+des+Pyramides/data=!4m7!3m6!1s0x12e3238559eec4db:0x2462a6b7d381b0fe!8m2!3d37.1589433!4d9.7787383!16s%2Fg%2F1hf9tmhh1!19sChIJ28TuWYUj4xIR_rCB07emYiQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe des Pyramides, located in Menzel Bourguiba at coordinates (37.156877620917, 9.785021641012), is a cafe with a 4.0 rating. It operates daily from 3:00am to 11:00pm and offers a variety of cafe-related services.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where is a top-rated cafe with a wide selection of coffee options located in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore Port de Menzel Bourguiba, the lively fishing harbor offering stunning views of the Mediterranean Sea.
+Mid-Morning: Try local cuisine at Restaurant nouri, a highly-rated dining destination for authentic Tunisian flavors.
+Midday: Visit the Municipalite de Menzel Bourguiba, the administrative heart of the city, for a glimpse into its local governance.
+Afternoon: Relax with a tranquil stroll through Parc national d'Ichkel, a stunning natural reserve renowned for its diverse flora and fauna.
+Evening: Indulge in a delightful dinner at Taco's, a popular spot for locals and tourists alike, serving tantalizing tacos and other Mexican delicacies.
+Night: Immerse yourself in the vibrant atmosphere of Hollywood stars, a cafe and grill restaurant, and enjoy live music or a delectable dinner under the stars.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Flamenco**, located in Menzel Bourguiba at coordinates (37.151982, 9.7945418), is a café offering a relaxing ambiance to its customers. The establishment is open from 6am to midnight on weekdays and closed on weekends. Customers can enjoy a variety of café offerings while soaking in the atmosphere of the establishment.
+Restaurant nouri, located at 5Q4V+7X8 rue Victor Hugo, Menzel Bourguiba, Tunisia, is a highly-rated restaurant (5.0 stars) specializing in local cuisine. It has a convenient location for those looking for a dining experience in the area.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3480,12 +4788,62 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a cozy place to relax, visit Cafe la pausegout located at 5Q4V+HQ9 Cafe la pausegout, rue Robin, Menzel Bourguiba. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. With a rating of 4.5, it's a must-visit spot. For more details, visit their website at http://www.instagram.com/Lapausegout_t or call them at nan.</t>
+          <t>Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>What is the address and specialty of the highly-rated cozy café, Cafe la pausegout, in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Exploring the active fishing harbor at Port de Menzel Bourguiba.
+Mid-Morning: Trying local cuisine at the highly-rated Resto Pizza Della Piazza.
+Midday: Visiting the historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville.
+Afternoon: Enjoying scenic views at Parc National d'Ichkel, a vast ornithological and natural reserve.
+Evening: Shopping for souvenirs at the local market.
+Night: Indulging in delicious crepes at "Funky Monkey", a highly-rated creperie.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a highly-rated cafe located in Menzel Bourguiba, Tunisia. Located at coordinates (37.1489944, 9.788904), it is easily accessible and offers a wide range of services. With an average rating of 5.0 based on 3 reviews, the cafe has gained recognition for its quality offerings.
+Resto Pizza Della Piazza is a restaurant located in Menzel Bourguiba, Tunisia. It is situated at 7050 Av. de l'Independance and has a rating of 5.0 out of 5 stars based on 1 review. The restaurant serves pizza and is open from 9:00 AM to 8:00 PM. It does not have a website or social media presence.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3587,14 +4945,62 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Trip Chocolat. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-00:00 but closed on []. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Trip+Chocolat/data=!4m7!3m6!1s0x12e323da4f69709d:0x86b4b37734e28f29!8m2!3d37.1574877!4d9.7911626!16s%2Fg%2F11g4f31641!19sChIJnXBpT9oj4xIRKY_iNHeztIY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Trip Chocolat is a restaurant located in menzel bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It has a rating of 4.5 out of 5 based on 4 reviews and is open from 8:00 AM to midnight every day.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant destination with a wide selection of cuisines in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville
+Mid-Morning: Visit the Maison d'Art Dr Lfn for some cultural immersion
+Midday: Try local cuisine at Taco's, known for its delicious tacos and Mexican dishes
+Afternoon: Enjoy scenic views at the picturesque Parc national d'Ichkel
+Evening: Explore the active fishing harbor at Port de Menzel Bourguiba
+Night: Indulge in a memorable dining experience at Resto Pizza Della Piazza</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Hammadi is located in Menzel Bourguiba, Tunisia. It is a cafe that offers its customers a variety of food and beverages. It gets 5.0/5 ratings on Google and is open from 6:00 am to 9:00 pm.
+Resto Pizza Della Piazza is a restaurant located in Menzel Bourguiba, Tunisia. It is situated at 7050 Av. de l'Independance and has a rating of 5.0 out of 5 stars based on 1 review. The restaurant serves pizza and is open from 9:00 AM to 8:00 PM. It does not have a website or social media presence.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3696,14 +5102,66 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Restaurant, check out Restaurant Chaabene located at 5Q3W+4QX blvd Saadi Carnot, Menzel Bourguiba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Chaabene/data=!4m7!3m6!1s0x12e32391120af0df:0xc87caf9746b2b40d!8m2!3d37.1528693!4d9.7969841!16s%2Fg%2F11hz9jf6lb!19sChIJ3_AKEpEj4xIRDbSyRpevfMg?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Restaurant Chaabene is located in Menzel Bourguiba, Tunisia, with the coordinates (37.1489944, 9.788904). It offers a menu filled with delicious dishes and also has a 4.8 rating based on 4 reviews. This restaurant is open from 9:00 AM to 11:00 PM every day and is a great place to visit for a memorable dining experience.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>If you're visiting Menzel Bourguiba and craving some exceptional cuisine, where should you head for a top-rated dining experience with a range of restaurant options and a 4.8 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Menzel Bourguiba port (Port de Menzel Bourguiba)
+Mid-Morning: Trying local cuisine at Cafe la pausegout
+Midday: Visiting a historical landmark: Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville
+Afternoon: Relaxing with a tea at Cafe la pausegout
+Evening: Enjoying grilled food for dinner at Hollywood stars
+Night: Shopping for souvenirs at OLA Menzel Bourguiba (Sud)</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Hammadi is located in Menzel Bourguiba, Tunisia. It is a cafe that offers its customers a variety of food and beverages. It gets 5.0/5 ratings on Google and is open from 6:00 am to 9:00 pm.
+Lablebi 2 is a restaurant located in Menzel Bourguiba (37.1489944, 9.788904). The restaurant is highly rated with a score of 5.0 out of 5, based on one review.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3805,12 +5263,65 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba, Cafe is a top-rated destination for Cafe lovers. With a rating of 4.3, it's a must-visit spot. It's located at 5Q5G+FQX Cafe, Av. de L'independance, Menzel Bourguiba and open from 05:00-23:00. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9/data=!4m7!3m6!1s0x12e323853cb9c669:0x9186c2f4549d03c1!8m2!3d37.1587304!4d9.7769791!16s%2Fg%2F11g_fl1f2!19sChIJaca5PIUj4xIRwQOdVPTChpE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Cafe**
+Located on the Av. de L'independance in Menzel Bourguiba, Cafe is a popular spot for locals and tourists alike. The cafe offers a variety of drinks and snacks, including coffee, tea, pastries, and sandwiches. It is open from 5:00 AM to 11:00 PM daily.
+The cafe is situated in a convenient location, just a short walk from the city center. It is also close to several other attractions, including the Menzel Bourguiba Museum and the Sidi Bouzid Mosque.
+The cafe has a warm and inviting atmosphere, with cozy seating and friendly staff. It is a great place to relax and enjoy a cup of coffee or a bite to eat.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find Cafe, a highly rated destination for cafe lovers with a 4.3 rating?</t>
+          <t>Day Plan:
+Morning: Explore Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea.
+Mid-Morning: Visit the Municipalite de Menzel Bourguiba, an administration municipale that offers administrative services.
+Midday: Try local cuisine at HolyMoly Restaurant, a fast food restaurant known for its 24-hour service and variety of dishes.
+Afternoon: Engage in outdoor activities like walking or cycling at Parc National d'Ichkel, a vast ornithological and natural reserve.
+Evening: Enjoy scenic views at Hollywood stars, a restaurant with grilled food and an excellent ambiance.
+Night: Relax with a tea at Cafe la pausegout, a tea room with a 4.5-star rating and a cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a cafe located in 5Q2Q+576 Cafe Ennour, Unnamed Road, Menzel Bourguiba. It has a rating of 5.0 based on 3 reviews. Its workday timing is from 08:00-18:00. The cafe's coordinates are (37.1489944, 9.788904).
+Cafe Resto L'mama is a 4.8-star restaurant located in Menzel Bourguiba, Tunisia. It's on rue de la republique and serves cuisine in the Restaurant category.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3916,12 +5427,62 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Ennour located at 5Q2Q+576 Cafe Ennour, Unnamed Road, Menzel Bourguiba. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, call them at 53 519 566.</t>
+          <t>Cafe Ennour is a highly-rated cafe located in Menzel Bourguiba, Tunisia. Located at coordinates (37.1489944, 9.788904), it is easily accessible and offers a wide range of services. With an average rating of 5.0 based on 3 reviews, the cafe has gained recognition for its quality offerings.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and craving a delicious cup of coffee, where can you find a top-rated cafe with a perfect rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore the lively Port de Menzel Bourguiba, a bustling fishing harbor with scenic views. Take a stroll along the promenade and soak in the vibrant atmosphere.
+Mid-Morning: Indulge in a delightful breakfast at Cafe LE MARIN, renowned for its exquisite ambiance and flavorful dishes. Savor the aroma of freshly brewed coffee and relish the local delicacies.
+Midday: Visit the Municipalite de Menzel Bourguiba, the administrative heart of the city. Admire the architectural beauty of this historic building and learn about the municipality's role in the community.
+Afternoon: Immerse yourself in the captivating Parc national d'Ichkel, an ornithological reserve with breathtaking landscapes. Embark on a guided tour, marvel at the diverse birdlife, and discover the rich biodiversity of this natural sanctuary.
+Evening: Treat your taste buds to an authentic dining experience at Taco's, a local favorite known for its tantalizing tacos, crepes, and desserts. Savor the flavors of traditional Tunisian cuisine in a warm and inviting atmosphere.
+Night: Experience the vibrant nightlife at Hollywood Stars, a cafe and grill restaurant that combines delicious food with live music. Enjoy a memorable evening with friends, indulging in culinary delights while immersing yourself in the local entertainment scene.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe LE MARIN** is a well-reviewed cafe located in Menzel Bourguiba, approximately at (37.1483491, 9.7895079). It has a 5.0 rating based on 3 reviews and falls under the category of Cafe. The cafe is open from 4:00 AM to midnight and can be contacted at 97 303 107 for any inquiries or reservations.
+Mozart is a restaurant located in Menzel Bourguiba at the coordinates (37.1489944, 9.788904). It has a rating of 4.1 out of 5 and is open from 9 am to midnight. The categories associated with this establishment are "Restaurant" and no review keywords are mentioned in the provided data.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4027,12 +5588,62 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a Cafe, check out cafe LE MARIN located at cafe LE MARIN, Menzel Bourguiba 7050. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:00-00:00, but closed on . To get there, use these GPS coordinates: 37.1483491, 9.7895079. For more details, visit their website or call them at 97 303 107.</t>
+          <t>**Cafe LE MARIN** is a well-reviewed cafe located in Menzel Bourguiba, approximately at (37.1483491, 9.7895079). It has a 5.0 rating based on 3 reviews and falls under the category of Cafe. The cafe is open from 4:00 AM to midnight and can be contacted at 97 303 107 for any inquiries or reservations.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated cafe named LE MARIN, which is open from 4 AM to midnight and closed on Wednesdays?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Port de Menzel Bourguiba, the heart of the fishing industry in Tunisia. Marvel at the vibrant colors of the boats and witness the daily activities of local fishermen.
+Mid-Morning: Immerse yourself in the local cuisine by trying the mouthwatering dishes at Taco's, renowned for its authentic Mexican flavors. Relish the tantalizing tacos and enjoy the lively ambiance of this popular spot.
+Midday: Visit the impressive Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a historic Catholic church that showcases stunning architecture and intricate details. Admire its beauty and learn about its religious significance.
+Afternoon: Escape the hustle and bustle by taking a serene walk through Parc national d'Ichkel, a nature reserve that offers breathtaking views of Lake Ichkeul. Explore the diverse flora and fauna while enjoying the tranquility of this natural sanctuary.
+Evening: Indulge in a delightful dinner at Roti Express, highly acclaimed for its exquisite poultry dishes. Savor the tender flavors and traditional cooking methods that have earned this restaurant a 5.0 rating.
+Night: Head to Funky Monkey, a charming creperie that serves delectable crepes in a cozy atmosphere. Choose from a variety of sweet and savory options and relish the exquisite flavors that have made this establishment a local favorite.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It is known for its welcoming atmosphere, friendly staff, and delicious coffee. The cafe is open from 4:30 am to 11:30 pm, making it a great place to grab a morning coffee or relax with friends in the evening. Café Ben Mahmoud is also a great place to people-watch, as it is located on a busy street. The cafe is easy to find, as it is located just off the main road.
+Restaurant Manchou is a highly rated restaurant located in Menzel Bourguiba, Tunisia at coordinate (37.1489944, 9.788904). It offers a variety of dishes and has received 14 reviews with an average rating of 4.9.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4130,15 +5741,68 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Cafe spot, check out Cafe Hammadi located at 4QVV+4RW Cafe Hammadi, Rue El khansa, Menzel Bourguiba. 
-This top-rated spot is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-21:00, but closed on []. 
-For more details, visit their website or call them at .</t>
+          <t>Café Hammadi is located in Menzel Bourguiba, Tunisia. It is a cafe that offers its customers a variety of food and beverages. It gets 5.0/5 ratings on Google and is open from 6:00 am to 9:00 pm.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find the top-rated cafe, Cafe Hammadi, renowned for its exceptional selection of cafe beverages?</t>
+          <t>Day Plan:
+Morning:
+- Exploring Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. Marvel at the fishing boats and soak in the bustling atmosphere.
+Mid-Morning:
+- Trying local cuisine at Restaurant Chaabene, known for its delectable Tunisian dishes. Indulge in traditional flavors and savor the warm ambiance.
+Midday:
+- Visiting Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church. Admire its architectural beauty and appreciate its religious significance.
+Afternoon:
+- Enjoying a scenic walk at Parc national d'Ichkel, a renowned ornithological and natural reserve. Immerse yourself in the stunning African wilderness and encounter diverse flora and fauna.
+Evening:
+- Relaxing with a traditional hammam experience at a local spa. Rejuvenate and unwind in the calming steam and enjoy a relaxing massage.
+Night:
+- Experiencing cultural immersion at the Maison d'Art Dr Lfn, a cultural center offering exhibitions, workshops, and performances. Engage with local artists and learn about Tunisian culture.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at the coordinates (37.1489944, 9.788904), it is a popular destination for locals and tourists alike. The cafe offers a warm and inviting ambiance, with friendly staff and a great selection of drinks and snacks. Its convenient location makes it an ideal place to relax and unwind while exploring the city.
+Nestled in the charming town of Menzel Bourguiba, the highly-rated Restaurant Chaabene awaits patrons. Boasting a welcoming atmosphere and delectable cuisine, this establishment has earned a 4.8-star rating from satisfied diners. With its convenient location at 5Q3W+4QX on Boulevard Saadi Carnot, Restaurant Chaabene is easily accessible to both locals and visitors.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4240,14 +5904,62 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba seeking a worthwhile activity, Cafe Brazilia is a great choice. 
-Located at 5Q3R+5MP Cafe Brazilia, this Cafe is perfect for all things coffee. With a rating of 4.3, this spot is very well received. 
-Operating 24 hours a day, make sure to visit them at these coordinates: (37.1531727, 9.7917907).</t>
+          <t>Cafe Brazilia is a cafe located at 5Q3R+5MP Cafe Brazilia, Menzel Bourguiba. It is open 24 hours a day and has a rating of 4.3 stars. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located in the city center and is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you enjoy a top-rated coffee experience any time of the day?</t>
+          <t>Day Plan:
+Morning: Explore the active fishing harbor of Port de Menzel Bourguiba.
+Mid-Morning: Take a guided tour of the fascinating Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a historic Catholic church.
+Midday: Indulge in a delectable lunch at the highly-rated Restaurant Chaabene, known for its welcoming atmosphere and delectable cuisine.
+Afternoon: Embark on an adventurous hike through the scenic Parc national d'Ichkel, a UNESCO World Heritage site offering breathtaking views and wildlife sightings.
+Evening: Immerse yourself in the local culture at the Maison d'Art Dr Lfn, a vibrant cultural center hosting exhibitions, workshops, and performances.
+Night: Head to Taco's, a popular spot for locals and tourists, and savor the flavors of authentic Mexican dishes.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Elmadina is a cafe located in Menzel Bourguiba, Tunisia at the coordinates of 37.154, 9.80059. It has received an average rating of 4.0 from reviewers, is open from 6:00 AM to 11:30 PM on weekdays, and offers a variety of cafe-related amenities.
+Nestled in the charming town of Menzel Bourguiba, the highly-rated Restaurant Chaabene awaits patrons. Boasting a welcoming atmosphere and delectable cuisine, this establishment has earned a 4.8-star rating from satisfied diners. With its convenient location at 5Q3W+4QX on Boulevard Saadi Carnot, Restaurant Chaabene is easily accessible to both locals and visitors.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4349,13 +6061,67 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Cafe, check out cafe gouider located at 5Q4G+F92 cafe gouider. 
-This must-visit spot has a rating of 5.0 and is open from 04:00-01:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+gouider/data=!4m7!3m6!1s0x12e3237a9dfa2cfd:0x186561913473a9c8!8m2!3d37.1561962!4d9.7757774!16s%2Fg%2F11tfm5npwt!19sChIJ_Sz6nXoj4xIRyKlzNJFhZRg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Discover "cafe gouider," a popular cafe located in Menzel Bourguiba at 5Q4G+F92. Open from 04:00 to 01:00 daily, the cafe offers a convenient location for coffee enthusiasts. With an impressive 5.0 rating and positive reviews, cafe gouider is highly recommended for its offerings.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find the highly-rated café, Café Gouider, known for its exceptional 5.0 rating and convenient opening hours?</t>
+          <t>Day Plan:
+Morning: Exploring Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea
+Mid-Morning: Trying local cuisine at Taco's, known for its great food and service
+Midday: Visiting Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church
+Afternoon: Relaxing with a tea at Cafe la pausegout, a highly-rated tea room
+Evening: Enjoying a tasty pizza dinner at Aroubi, a highly-rated pizzeria
+Night: Experiencing cultural immersion at Maison d'Art Dr Lfn, a cultural center offering exhibitions, workshops, and performances</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Gouider** is a highly-rated cafe located in Menzel Bourguiba, Tunisia (coordinates: 37.1489944, 9.788904). Operating from 4:00 AM to 1:00 AM, the cafe offers a cozy ambiance and a welcoming atmosphere. Despite the lack of an official website or contact information, Cafe Gouider has garnered positive reviews for its inviting atmosphere and friendly service.
+La Couronne is a 4.5-rated restaurant located in Menzel Bourguiba, Tunisia. It is open daily from 8 am to 11 pm and offers a variety of dining options in a cozy and welcoming atmosphere. The restaurant is known for its delicious food, friendly staff, and convenient location, making it a popular destination for both locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4461,14 +6227,69 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Khemiri located at Passage Tinja, Menzel Bourguiba 7032. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:00-00:00, but closed on []. To get there, use these GPS coordinates: 37.1650453, 9.7776937. For more details, visit their website at  or call them at 53 164 642.</t>
+          <t>Cafe Khemiri is a cafe located near Passage Tinja in Menzel Bourguiba, Tunisia. Worthy of note is that it has a 5-star rating from 2 reviews and the contact number is 53 164 642.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Which top-rated Cafe located in Passage Tinja, Menzel Bourguiba is known for its exceptional Cafe offerings?</t>
+          <t>Day Plan:
+Morning:
+ - Explore Parc national d'Ichkel [Natural Reserve] for its unique flora and fauna, offering a serene escape into nature.
+Mid-Morning:
+ - Visit Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville [Catholic Church] to admire its architectural beauty and historical significance.
+Midday:
+ - Indulge in a delightful lunch at Chez Rzouga [Restaurant] to savor the authentic flavors of Tunisian cuisine.
+Afternoon:
+ - Take a guided tour of Municipalite de Menzel Bourguiba [Administration Municipale] to gain insights into the local governance and history.
+Evening:
+ - Relax and rejuvenate with a soothing massage at [Spa/Hotel] to unwind and refresh for the evening ahead.
+Night:
+ - Experience the vibrant nightlife at Hollywood stars [Cafe and Grill Restaurant] with live music and entertainment, immersing yourself in the local culture.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe la Sirene is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at coordinates (37.157683, 9.782854), the cafe offers a range of amenities, including a featured image, website, and owner information. With a rating of 4.6 based on 8 reviews, the cafe is highly recommended by customers.
+Chez Rzouga is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has a rating of 4.1 stars on Google Maps. The restaurant is open from 9:00 AM to 2:00 PM during the weekdays and is closed on Sundays. It is located at the coordinates (37.156877620917, 9.785021641012).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4566,12 +6387,62 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Cafe, check out Cafe maryouma located at 84 Av. de L'independance, Menzel Bourguiba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/Cafe+maryouma/data=!4m7!3m6!1s0x12e323b0e1551fb9:0x645c1779e3d6f58d!8m2!3d37.1593071!4d9.7724747!16s%2Fg%2F11kjp3vsm4!19sChIJuR9V4bAj4xIRjfXW43kXXGQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe maryouma is a cafe located in Menzel Bourguiba, Tunisia. It is rated 4.5 stars on Google Maps and serves a variety of food and drinks. The cafe is owned by Cafe maryouma (proprietaire) and has an address of 84 Av. de L'independance, Menzel Bourguiba. The coordinates for the cafe are (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where can you find Cafe maryouma, a top-rated destination with a 4.5 rating, known for its exceptional Cafe selection in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Café Ben Mahmoud for a delightful coffee experience while soaking up the local atmosphere.
+Mid-Morning: Indulge in the authentic flavors of Tunisia at Taco's, renowned for its tantalizing tacos and Mexican delicacies.
+Midday: Visit the Port de Menzel Bourguiba, the vibrant fishing harbor, to witness the lively maritime activities and admire the scenic Mediterranean Sea views.
+Afternoon: Embark on a guided tour of the Parc national d'Ichkel, an ornithological haven known for its breathtaking natural beauty and diverse wildlife.
+Evening: Savor a delectable dinner at Roti Express, celebrated for its mouthwatering poultry dishes and exceptional service.
+Night: Unwind and relax at HolyMoly Restaurant, a fast food haven offering a variety of cuisines, ensuring a cozy and comfortable end to your day.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It is known for its welcoming atmosphere, friendly staff, and delicious coffee. The cafe is open from 4:30 am to 11:30 pm, making it a great place to grab a morning coffee or relax with friends in the evening. Café Ben Mahmoud is also a great place to people-watch, as it is located on a busy street. The cafe is easy to find, as it is located just off the main road.
+Pizza Frryville is a 4.5-rated restaurant located in Menzel Bourguiba, Tunisia (37.15368, 9.78594). It is open from 9:00 AM to 11:00 PM daily and offers a variety of food options, as well as a featured image (https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=eltSST1WEZSriHWD3Z_WHA&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=272.22913&amp;pitch=0&amp;thumbfov=100).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4677,14 +6548,63 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and searching for a satisfying meal, don't miss Roti Express at 56 Av. de L'independance. 
-This highly-rated restaurant is known for its delicious Poultry dish and offers a pleasant dining experience. 
-With a perfect rating of 5.0, it's a must-try spot. It's open 24/7, but closed on Mondays. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more information, visit their website or call them at 50 838 485.</t>
+          <t>Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant in Menzel Bourguiba is known for its delectable Poultry dish and offers a 24/7 dining experience, with the exception of Mondays?</t>
+          <t>Day Plan:
+Morning: Explore the active fishing harbor at Port de Menzel Bourguiba, marveling at the bustling atmosphere and the impressive catch of the day.
+Mid-Morning: Indulge in authentic Tunisian cuisine at Taco's, savoring the flavors of traditional tacos, crepes, and delectable desserts while soaking in the vibrant ambiance.
+Midday: Visit the historical and architecturally significant Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, appreciating its beauty and learning about its cultural significance.
+Afternoon: Immerse yourself in the natural wonders of Parc national d'Ichkel, embarking on a captivating hike amidst the diverse flora and fauna, admiring the stunning Lake Ichkeul, and immersing yourself in the beauty of the African wilderness.
+Evening: Experience traditional Tunisian hospitality and culinary delights at Cafe Resto L'mama, delighting in the restaurant's cozy ambiance and savoring the authentic flavors of local dishes.
+Night: Relax and unwind with a refreshing tea at Cafe la pausegout, enjoying the tranquility of the tea room and sipping on a delicious cup of tea amidst the warm and inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a cafe located in 5Q2Q+576 Cafe Ennour, Unnamed Road, Menzel Bourguiba. It has a rating of 5.0 based on 3 reviews. Its workday timing is from 08:00-18:00. The cafe's coordinates are (37.1489944, 9.788904).
+Cafe Resto L'mama is a 4.8-star restaurant located in Menzel Bourguiba, Tunisia. It's on rue de la republique and serves cuisine in the Restaurant category.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4786,12 +6706,62 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great place to eat, check out La Couronne located at 5Q4M+PPX La Couronne, Av. de L'independance. This top-rated restaurant is perfect for food lovers and offers a range of delicious dishes to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012.</t>
+          <t>La Couronne is a restaurant located in Menzel Bourguiba, Tunisia, offering a delectable culinary experience. It boasts a 4.5-star rating, indicating its exceptional offerings. Situated at coordinates (37.156877620917, 9.785021641012), it is easily accessible. Despite the lack of additional information, La Couronne is a highly recommended destination for those seeking a delightful dining experience.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>What high-rated restaurant with a wide selection of dishes can be found at 37.156877620917, 9.785021641012 in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore Gare Ferroviaire de Menzel-Bourguiba for its significance as a transportation hub.
+Mid-Morning: Indulge in local cuisine at Taco's, known for its delectable tacos and Mexican dishes.
+Midday: Visit Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a captivating historical landmark with architectural beauty.
+Afternoon: Enjoy the serenity of Parc national d'Ichkel, an ornithological reserve with stunning natural landscapes.
+Evening: Experience a culinary delight at Roti Express, a highly-rated poultry restaurant serving mouthwatering dishes.
+Night: Relax and socialize at Café el Gasri, a cozy cafe popular among locals, offering a warm ambiance and refreshing beverages.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café el Gasri is a cafe located in Menzel Bourguiba, Tunisia. It is situated on Rue de la Liberte and has a rating of 5.0. The cafe is open 7 days a week and offers a variety of coffee and tea drinks. It is also a popular spot for locals to relax and socialize.
+fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It has been rated 5.0 out of 5 by 6 reviewers on Google Maps. The restaurant's main category is Restaurant, and it is located at (37.1489944, 9.788904).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4897,12 +6867,66 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Hollywood stars located at 5Q3V+9HM Hollywood stars, rue de Corse, Menzel Bourguiba. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-19:00, but closed on dimanche. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website or call them at 72 470 423.</t>
+          <t>Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>If you're craving Café et restaurant de grillades in Menzel Bourguiba and want to discover a top-rated spot with a perfect 5.0 rating, where should you head to?</t>
+          <t>Day Plan:
+Morning: Explore Parc national d'Ichkel, a beautiful natural reserve offering opportunities for hiking and wildlife observation.
+Mid-Morning: Visit Municipalite de Menzel Bourguiba, the city's administration building, to learn about local history and governance.
+Midday: Indulge in a traditional Tunisian lunch at Restaurant Manchou, renowned for its authentic dishes and high ratings.
+Afternoon: Discover the cultural heritage of the region at Maison d'Art Dr Lfn, a cultural center hosting exhibitions, workshops, and performances.
+Evening: Experience the vibrant atmosphere of Menzel Bourguiba at Port de Menzel Bourguiba, the active fishing harbor, and enjoy the picturesque views.
+Night: Savor a delightful dinner at Hollywood stars, a restaurant specializing in grilled cuisine and boasting excellent reviews.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It offers a wide variety of coffee, tea, and other beverages, as well as a selection of food items such as sandwiches and pastries. The cafe is open from 4:30 AM to 11:30 PM every day and is located at 5Q5J+72W Cafe Ben Mahmoud, Av. de L'independance. Reviews praise its ambiance and friendly staff.
+Restaurant Manchou is a highly rated restaurant located in Menzel Bourguiba, Tunisia at coordinate (37.1489944, 9.788904). It offers a variety of dishes and has received 14 reviews with an average rating of 4.9.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4996,14 +7020,69 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe el Gasri located at 4QXM+229 Cafe el Gasri, Rue de la Liberte, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their link at https://www.google.com/maps/place/Caf%C3%A9+el+Gasri/data=!4m7!3m6!1s0x12e32567e2d769fd:0x1d9c3380c42c6d5c!8m2!3d37.1477958!4d9.7823188!16s%2Fg%2F11vj48gqt1!19sChIJ_WnX4mcl4xIRXG0sxIAznB0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Café el Gasri is a cafe located in Menzel Bourguiba, Tunisia. It is situated on Rue de la Liberte and has a rating of 5.0. The cafe is open 7 days a week and offers a variety of coffee and tea drinks. It is also a popular spot for locals to relax and socialize.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where is the top-rated Cafe el Gasri located based on its exceptional range of Cafe and warm ambiance?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Arrive in Menzel Bourguiba and check into the Hollywood stars cafe and grill for breakfast and a relaxing start to the day.
+**Mid-Morning:**
+- Take a guided tour of the historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, immersing yourself in the cultural heritage of the city.
+**Midday:**
+- Savor local cuisine at Taco's, a popular spot for authentic Mexican dishes and vibrant flavors.
+**Afternoon:**
+- Spend the afternoon exploring the scenic Parc National d'Ichkel, enjoying the serene nature trails and observing the diverse birdlife.
+**Evening:**
+- Indulge in a delightful dinner at Trip Chocolat, known for its elegant ambiance and exquisite culinary creations.
+**Night:**
+- Unwind at the Gare Routiere de Menzel-Bourguiba, a lively transportation hub where you can soak up the local atmosphere and witness the city's vibrant nightlife.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe azouzi is a cafe located in menzel bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The cafe has a good rating of 4.0 and offers a variety of services and products.
+Trip Chocolat is a restaurant located in menzel bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It has a rating of 4.5 out of 5 based on 4 reviews and is open from 8:00 AM to midnight every day.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5105,14 +7184,66 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Port de Menzel Bourguiba located at 7050, Port de Menzel Bourguiba, 25 rue Hassan Nouri, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Port fluvial ou maritime lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.15591, 9.80718. For more details, visit their website at https://www.google.com/maps/place/Port+de+Menzel+Bourguiba/data=!4m7!3m6!1s0x12e323fb5e366cb1:0x67dde99ccb6cf2!8m2!3d37.1560755!4d9.8067141!16s%2Fg%2F11b69v7q2m!19sChIJsWw2Xvsj4xIR8mzLnOndZwA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a top-rated Port fluvial ou maritime destination with a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the active fishing harbor of Port de Menzel Bourguiba, where you can witness the bustling activities of local fishermen (GPS coordinates: 37.15591, 9.80718).
+Mid-Morning: Immerse yourself in the rich history and culture of the region by visiting the Municipalite de Menzel Bourguiba for administrative services and local insights (GPS coordinates: 37.1547833, 9.7930178).
+Midday: Satisfy your culinary cravings by indulging in the delectable grilled food offerings at Hollywood stars, a highly-rated restaurant renowned for its exceptional cuisine and service (GPS coordinates: 37.1489944, 9.788904).
+Afternoon: Embark on a serene stroll or engage in recreational activities at the picturesque Parc national d'Ichkel, an ornithological and natural reserve that boasts a diverse ecosystem and breathtaking scenery (GPS coordinates: 37.1489944, 9.788904).
+Evening: Head to Funky Monkey, a creperie highly acclaimed for its delectable crepes and cozy ambiance, to end the day on a sweet note (GPS coordinates: 37.1489944, 9.788904).
+Night: Experience cultural immersion at the Maison d'Art Dr Lfn, a cultural center offering a vibrant array of exhibitions, workshops, and performances to showcase local art and traditions (GPS coordinates: 52 Avenue de L'Independance).</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe LE MARIN** is a well-reviewed cafe located in Menzel Bourguiba, approximately at (37.1483491, 9.7895079). It has a 5.0 rating based on 3 reviews and falls under the category of Cafe. The cafe is open from 4:00 AM to midnight and can be contacted at 97 303 107 for any inquiries or reservations.
+Club Fast Food KN chez Jamila is a restaurant in Menzel Bourguiba, Tunisia. Situated in Rue Imam Sahnoun (GPS coordinates 37.1489944, 9.788904), it serves up a menu of delicious food and is open from 8 am to 10 pm every day except Sunday.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5210,13 +7341,73 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and searching for a place related to Administration municipale, check out Municipalite de Menzel Bourguiba located at 5Q4R+4RF Municipalite de Menzel Bourguiba, Menzel Bourguiba. 
-This highly-rated destination offers a range of Administration municipale to choose from, With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1547833, 9.7930178.</t>
+          <t>Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated Administration municipale with a rating of 4.0?</t>
+          <t>Day Plan:
+Morning:
+- Visit the Municipalite de Menzel Bourguiba for administrative services or historical insights.
+Mid-Morning:
+- Explore the architectural beauty of the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville.
+Midday:
+- Indulge in local cuisine at Restaurant Manchou, known for its delicious dishes and high ratings.
+Afternoon:
+- Experience the vibrant atmosphere at Port de Menzel Bourguiba, the active fishing harbor.
+Evening:
+- Explore the cultural heritage at the Maison d'Art Dr Lfn, a hub for artistic exhibitions and performances.
+Night:
+- Relax and rejuvenate at the HolyMoly Restaurant, a fast food spot offering a 24-hour service.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ben Fattoum is a cafe located in Menzel Bourguiba, Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious coffee and friendly service. The cafe is open 24 hours a day, so you can enjoy a cup of coffee or tea any time of day or night. It is located at 4QXR+P36 Cafe ben Fattoum, Menzel Bourguiba.
+Restaurant Manchou is a restaurant located in Menzel Bourguiba, Tunisia (37.1489944, 9.788904). It has a rating of 4.9 based on 14 reviews and offers a variety of dishes.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5314,12 +7505,72 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a place to visit, check out Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville located at 5Q5V+6C8 Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, Menzel Bourguiba. This top-rated destination is perfect for Eglise lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: -20.9855836, 55.2985359. For more details, visit their website at https://www.google.com/maps/place/%C3%89glise+Sainte-Th%C3%A9r%C3%A8se-de-l%27Enfant-J%C3%A9sus+de+Ferryville/data=!4m7!3m6!1s0x12e323acaaed3111:0x92843c9dc0fa89a!8m2!3d37.1580403!4d9.7935626!16s%2Fg%2F11g88dxltj!19sChIJETHtqqwj4xIRmqgP3MlDKAk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Eglise destination in Menzel Bourguiba, known for its exceptional appeal among enthusiasts?</t>
+          <t>Day Plan:
+Morning:
+- Explore the vibrant Port de Menzel Bourguiba, a bustling fishing harbor offering panoramic Mediterranean views.
+Mid-Morning:
+- Visit the Municipalite de Menzel Bourguiba to learn about local governance and its significance.
+Midday:
+- Delight in a delectable lunch of traditional Tunisian cuisine at Taco's, known for its authentic tacos and flavors.
+Afternoon:
+- Journey into the natural wonders of Parc national d'Ichkel, a UNESCO World Heritage site, for picturesque hiking and wildlife sightings.
+Evening:
+- Immerse yourself in the cultural richness of the Maison d'Art Dr Lfn, a hub for art exhibitions, workshops, and performances.
+Night:
+- Experience the animated nightlife at Funky Monkey, a highly-rated creperie renowned for its cozy ambiance and delicious crepes.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Octa is a highly rated cafe located in Menzel Bourguiba, Tunisia. It opens from 4:30 AM to 1:00 AM and offers a wide range of food and drinks. The cafe's exact location is at coordinates (37.156877620917, 9.785021641012).
+fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It has been rated 5.0 out of 5 by 6 reviewers on Google Maps. The restaurant's main category is Restaurant, and it is located at (37.1489944, 9.788904).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5425,14 +7676,62 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Maison d'art dr lfn located at Maison d'art dr lfn, 52 Av. de L'independance, Menzel Bourguiba. 
-This top-rated destination is perfect for Centre culturel lovers and offers a range of Centre culturel to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website or call them at 95 288 008.</t>
+          <t>The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a top-rated destination perfect for Centre culturel enthusiasts with a 4.9 rating and 24-hour accessibility?</t>
+          <t>Day Plan:
+Morning: Explore the bustling fishing harbor of Port de Menzel Bourguiba.
+Mid-Morning: Indulge in a hearty Lablabi at the renowned Chez Mourad - Lablabi.
+Midday: Visit the Municipalite de Menzel Bourguiba for insights into local governance.
+Afternoon: Enjoy a leisurely walk through the scenic Parc National d'Ichkel, observing its rich birdlife and natural beauty.
+Evening: Savor exquisite pizza at the highly-rated Aroubi.
+Night: Immerse yourself in the cozy ambiance of Funky Monkey, indulging in delicious crepes.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Gouider** is a highly-rated cafe located in Menzel Bourguiba, Tunisia (coordinates: 37.1489944, 9.788904). Operating from 4:00 AM to 1:00 AM, the cafe offers a cozy ambiance and a welcoming atmosphere. Despite the lack of an official website or contact information, Cafe Gouider has garnered positive reviews for its inviting atmosphere and friendly service.
+Chez Mourad - Lablabi is a restaurant famous for its hearty and flavorful Lablabi, a traditional Tunisian dish. Located in the heart of Menzel Bourguiba, the restaurant is a popular spot for locals and tourists alike. With four stars on Google and rave reviews, Chez Mourad - Lablabi is a culinary gem.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5538,14 +7837,62 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Parc national d'Ichkel located at Parc national d'Ichkel, 13 P11, Menzel Bourguiba. 
-This top-rated destination is perfect for Parc national lovers and offers a range of Parc national, Attraction touristique to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Parc+national+d%27Ichkel/data=!4m7!3m6!1s0x12e3216abcd79257:0x217dee81336dc7de!8m2!3d37.1475861!4d9.6675486!16s%2Fg%2F1ygjd28xs!19sChIJV5LXvGoh4xIR3sdtM4HufSE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Parc national destination with a variety of attractions located in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Exploring Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia.
+Mid-Morning: Trying local cuisine at Taco's, a restaurant in Menzel Bourguiba known for its great food and service.
+Midday: Visiting the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church located in Menzel Bourguiba.
+Afternoon: Enjoying a walk through Parc National d'Ichkel, a vast ornithological and natural reserve located around Lake Ichkeul.
+Evening: Relaxing with a tea at Cafe la pausegout, a tea room situated in the city of Menzel Bourguiba.
+Night: Participating in a cultural immersion at the Maison d'Art Dr Lfn, a cultural center in Menzel Bourguiba that offers a variety of cultural activities, including exhibitions, workshops, and performances.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Khemiri is a cafe located near Passage Tinja in Menzel Bourguiba, Tunisia. Worthy of note is that it has a 5-star rating from 2 reviews and the contact number is 53 164 642.
+fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has received positive reviews from customers, earning a rating of 5.0 out of 5. The restaurant is located at the coordinates (37.1489944, 9.788904).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5639,14 +7986,67 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Jabal Sidi Yahya located at Jabal Sidi Yahya, Menzel Bourguiba. 
-This top-rated destination is perfect for mountain peak lovers and offers a range of mountain peak to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.16667, 9.8. For more details, visit their website at https://www.google.com/maps/place/Jabal+Sidi+Yahya/data=!4m7!3m6!1s0x12e323e8683314a1:0xa096b6c8ceca8f28!8m2!3d37.1666667!4d9.8!16s%2Fg%2F1w6wrzwv!19sChIJoRQzaOgj4xIRKI_Kzsi2lqA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Jabal Sidi Yahya is a mountain summit located in Menzel Bourguiba, Tunisia. It offers breathtaking views of the surrounding landscape and is a popular destination for hikers and nature enthusiasts. The summit is easily accessible by foot and is suitable for all fitness levels. Its precise location is at latitude 37.16667 and longitude 9.8.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a top-rated destination with various mountain peaks for enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea, and capturing the beauty of the boats and the sea.
+Mid-Morning: Trying local cuisine at Restaurant nouri, a highly-rated restaurant specializing in local cuisine. Savor the authentic flavors of traditional Tunisian dishes.
+Midday: Visiting the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church, and admiring its architectural details.
+Afternoon: Participating in outdoor activities like hiking and wildlife viewing at Parc national d'Ichkel, a stunning nature reserve around Lake Ichkeul. Take in the tranquil beauty of nature and spot diverse wildlife.
+Evening: Enjoying dinner at Roti Express, a highly-rated poultry restaurant. Indulge in mouthwatering poultry dishes and experience the warm hospitality.
+Night: Relaxing with a soothing cup of tea at Cafe la pausegout, a tea room situated in the city center. Immerse yourself in the local culture and unwind with a refreshing beverage.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Brazilia is a highly-rated (4.3/5) cafe located in Menzel Bourguiba, Tunisia. The cafe is open 24 hours a day and offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at coordinates (37.1531727, 9.7917907), which is at an elevation of 1186 meters above sea level.
+Restaurant nouri, located at 5Q4V+7X8 rue Victor Hugo, Menzel Bourguiba, Tunisia, is a highly-rated restaurant (5.0 stars) specializing in local cuisine. It has a convenient location for those looking for a dining experience in the area.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5752,14 +8152,67 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Parc national d'Ichkel located at Parc national d'Ichkel, 13 P11. 
-This top-rated destination is perfect for Parc national lovers and offers a range of categories to choose from, including Parc national and Attraction touristique. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Parc+national+d%27Ichkel/data=!4m7!3m6!1s0x12e3216abcd79257:0x217dee81336dc7de!8m2!3d37.1475861!4d9.6675486!16s%2Fg%2F1ygjd28xs!19sChIJV5LXvGoh4xIR3sdtM4HufSE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a top-rated Parc national destination with a wide range of offerings for Parc national enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Port de Menzel Bourguiba, where you can witness the lively fishing activities and immerse yourself in the coastal charm.
+Mid-Morning: Visit the iconic Municipalite de Menzel Bourguiba, the city's administrative center, offering a glimpse into the local governance and architecture.
+Midday: Try the local cuisine at Lablebi 2, known for its exceptional rating and mouthwatering dishes, promising a culinary adventure in the heart of the city.
+Afternoon: Engage in the serene beauty of Parc National d'Ichkel, a vast ornithological and natural reserve surrounding Lake Ichkeul. Discover the diverse flora and fauna as you explore its captivating trails.
+Evening: Attend a captivating performance at the Maison d'Art Dr Lfn, a cultural center that showcases exhibitions, workshops, and performances, enriching your artistic experience.
+Night: Experience the vibrant atmosphere of "Funky Monkey," a highly-rated creperie where you can indulge in delicious crepes and enjoy live music, creating a memorable culinary and entertainment experience.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe maryouma is a cafe located in Menzel Bourguiba, Tunisia, at the coordinates (37.156877620917, 9.785021641012). It has a rating of 4.5 stars and offers a variety of beverages and snacks.
+Lablebi 2 is a restaurant located in Menzel Bourguiba (37.1489944, 9.788904). The restaurant is highly rated with a score of 5.0 out of 5, based on one review.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5865,17 +8318,67 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you find yourself in menzel bourguiba and looking for a great outdoor experience, be sure to visit Parc national d'Ichkel in Parc national d'Ichkel, 13 P11. 
-This top-rated destination is perfect for nature enthusiasts and offers a variety of activities to enjoy. 
-With a rating of 4.0, it's a must-visit spot in the area. 
-Parc national d'Ichkel is open 24 hours a day, so you can explore at your leisure. 
-To get there, use these GPS coordinates: 37.1489944, 9.788904. 
-For more details, visit their website at https://www.google.com/maps/place/Parc+national+d%27Ichkel/data=!4m7!3m6!1s0x12e3216abcd79257:0x217dee81336dc7de!8m2!3d37.1475861!4d9.6675486!16s%2Fg%2F1ygjd28xs!19sChIJV5LXvGoh4xIR3sdtM4HufSE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a top-rated national park offering a variety of outdoor activities and open 24/7?</t>
+          <t>Day Plan:
+Morning: Explore the historic Port de Menzel Bourguiba, a bustling fishing harbor on the Mediterranean Sea.
+Mid-Morning: Visit the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church that showcases the city's French colonial architecture.
+Midday: Indulge in a delightful lunch of traditional Tunisian cuisine at Café la Sirene, a highly-rated local café known for its cozy atmosphere and delicious food.
+Afternoon: Unwind and relax with a rejuvenating spa treatment at the luxurious Maison d'Art Dr Lfn, a cultural center that also offers a range of wellness services.
+Evening: Experience the vibrant atmosphere of Menzel Bourguiba by exploring the bustling Municipalite de Menzel Bourguiba for local markets and street food vendors.
+Night: Savor an authentic dinner at "Taco's," a popular restaurant offering an array of delectable tacos and other Mexican dishes.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café la Sirene is a highly-rated cafe located in Menzel Bourguiba, Tunisia. It boasts a cozy and inviting atmosphere, offering a delightful experience for patrons. With a rating of 4.6 based on 8 reviews, this establishment has earned the喜爱 of locals and visitors alike.
+Club Fast Food KN chez Jamila is a restaurant in Menzel Bourguiba, Tunisia. Situated in Rue Imam Sahnoun (GPS coordinates 37.1489944, 9.788904), it serves up a menu of delicious food and is open from 8 am to 10 pm every day except Sunday.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5981,14 +8484,66 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Parc national d'Ichkel located at Parc national d'Ichkel, 13 P11, Menzel Bourguiba. 
-This top-rated destination is perfect for Parc national lovers and offers a range of Attraction touristique to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Parc+national+d%27Ichkel/data=!4m7!3m6!1s0x12e3216abcd79257:0x217dee81336dc7de!8m2!3d37.1475861!4d9.6675486!16s%2Fg%2F1ygjd28xs!19sChIJV5LXvGoh4xIR3sdtM4HufSE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Parc national destination offering various attractions for Parc national enthusiasts in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville.
+Mid-Morning: Indulge in local cuisine at Taco's, renowned for its mouthwatering tacos and crepes.
+Midday: Visit the Gare Ferroviaire de Menzel-Bourguiba, a bustling train station that serves as a gateway to the city's attractions.
+Afternoon: Take a scenic stroll through Parc National d'Ichkel, a vast nature reserve that offers serene trails and abundant wildlife.
+Evening: Immerse yourself in the vibrant atmosphere of Café Flamenco, offering a delightful selection of food and drinks while soaking in the local ambiance.
+Night: Delight in the exquisite poultry dishes at Roti Express, a highly-rated restaurant known for its delectable and authentic culinary creations.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Flamenco is a cafe located in Menzel Bourguiba, Tunisia. It is open from 6am to midnight and offers a variety of food and drinks. The cafe is rated 4.0 out of 5 stars on Google and has received 12 reviews.
+Mozart is a restaurant located in Menzel Bourguiba at the coordinates (37.1489944, 9.788904). It has a rating of 4.1 out of 5 and is open from 9 am to midnight. The categories associated with this establishment are "Restaurant" and no review keywords are mentioned in the provided data.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6090,14 +8645,63 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Flamenco located at 5Q2V+RQP Cafe Flamenco, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 37.151982, 9.7945418. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Flamenco/data=!4m7!3m6!1s0x12e323f413687655:0x596835154e003dd7!8m2!3d37.1520808!4d9.7944581!16s%2Fg%2F11g_d3m3d!19sChIJVXZoE_Qj4xIR1z0AThU1aFk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Cafe Flamenco**, located in Menzel Bourguiba at coordinates (37.151982, 9.7945418), is a café offering a relaxing ambiance to its customers. The establishment is open from 6am to midnight on weekdays and closed on weekends. Customers can enjoy a variety of café offerings while soaking in the atmosphere of the establishment.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe in Menzel Bourguiba with a wide selection and a lively atmosphere?</t>
+          <t>Day Plan:
+Morning: Explore the active fishing harbor at Port de Menzel Bourguiba.
+Mid-Morning: Try local cuisine at HolyMoly Restaurant, a fast food restaurant open 24 hours a day.
+Midday: Visit the Municipalite de Menzel Bourguiba, an administration municipale with a rating of 4.0 based on 1 review.
+Afternoon: Enjoy a guided tour of the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church.
+Evening: Shop for souvenirs at the Funky Monkey creperie, a highly-rated spot with an average rating of 5.0.
+Night: Relax with a drink at Cafe Ben Mahmoud, a cozy cafe with a variety of beverages situated on Av. de L'independance.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ben Mahmoud is a cafe located in Menzel Bourguiba, Tunisia, offering a cozy atmosphere and a variety of beverages. It is situated on Av. de L'independance, with coordinates (37.1582466, 9.7801053).
+Trip Chocolat is a restaurant located in menzel bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It has a rating of 4.5 out of 5 based on 4 reviews and is open from 8:00 AM to midnight every day.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6195,14 +8799,66 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great restaurant, check out Restaurant Manchou located at 5Q3V+HPC Restaurant Manchou, rue de Corse, Menzel Bourguiba. 
-This highly-rated restaurant is perfect for restaurant lovers and offers a range of restaurant options to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: nan, but closed on [closed_on]. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipOwVDBoDirq2cAJJC4Tsz_iC-WQJOY6eeAdtEck=w408-h544-k-no or call them at [phone].</t>
+          <t>Restaurant Manchou is a restaurant located in Menzel Bourguiba, Tunisia (37.1489944, 9.788904). It has a rating of 4.9 based on 14 reviews and offers a variety of dishes.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where can you find Restaurant Manchou, a highly-rated restaurant in Menzel Bourguiba known for its exceptional dining experience?</t>
+          <t>Day Plan:
+Morning: Exploring Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. Take in the sights and sounds of the bustling port, observe the fishing boats, and capture the vibrant atmosphere.
+Mid-Morning: Trying local cuisine at Chez Rzouga. Immerse yourself in the authentic flavors of Tunisia by savoring a delightful meal at this highly-rated restaurant.
+Midday: Visiting Municipalite de Menzel Bourguiba. Learn about the local history and explore the administrative building that plays a vital role in the community.
+Afternoon: Relaxing with a rejuvenating spa treatment at a local spa. Pamper yourself with a massage, facial, or other treatment to revitalize your body and mind.
+Evening: Enjoying a romantic dinner at Hollywood stars. Indulge in a culinary masterpiece with your loved one at this 5.0 rated restaurant known for its exquisite grilled dishes.
+Night: Experiencing cultural immersion at Maison d'Art Dr Lfn. Explore the fascinating exhibits, workshops, and performances offered at this cultural center, enriching your understanding of the local art and culture.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Flamenco is a cafe located in Menzel Bourguiba. It is rated 4.0 stars out of 12 reviews and is open from 06:00 to 00:00 on weekdays. It offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 5Q2V+RQP, Menzel Bourguiba, and can be reached by phone at [NAN].
+Chez Rzouga is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has a rating of 4.1 stars on Google Maps. The restaurant is open from 9:00 AM to 2:00 PM during the weekdays and is closed on Sundays. It is located at the coordinates (37.156877620917, 9.785021641012).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6304,12 +8960,62 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Restaurant, check out Restaurant Chaabene located at 5Q3W+4QX Restaurant Chaabene, blvd Saadi Carnot, Menzel Bourguiba. This must-visit spot offers a range of categories to choose from and has a rating of 4.8. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Chaabene/data=!4m7!3m6!1s0x12e32391120af0df:0xc87caf9746b2b40d!8m2!3d37.1528693!4d9.7969841!16s%2Fg%2F11hz9jf6lb!19sChIJ3_AKEpEj4xIRDbSyRpevfMg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant Chaabene is a highly-rated restaurant located in Menzel Bourguiba. With a 4.8 rating based on 4 reviews, it offers a variety of dishes in a welcoming atmosphere. It is conveniently located at 5Q3W+4QX on Boulevard Saadi Carnot, accessible from the city center. The restaurant is open from 09:00-23:00 daily, providing ample time to enjoy a meal or a late-night snack.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>If you're craving a highly-rated dining experience in Menzel Bourguiba, where can you go for a menu with a wide selection of categories and a 4.8-star rating?</t>
+          <t>Day Plan:
+Morning: Explore Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea.
+Mid-Morning: Try local cuisine at Café Hammadi, known for its excellent food and beverages.
+Midday: Visit Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church.
+Afternoon: Enjoy scenic views at Parc national d'Ichkel, a renowned ornithological and natural reserve.
+Evening: Experience cultural immersion at Maison d'Art Dr Lfn, a cultural center offering various activities.
+Night: Relax with a meal at Fast Food ORORO, a restaurant serving a variety of food options and featuring a rating of 4.8 out of 5 stars on Google.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Hammadi is located in Menzel Bourguiba, Tunisia. It is a cafe that offers its customers a variety of food and beverages. It gets 5.0/5 ratings on Google and is open from 6:00 am to 9:00 pm.
+Fast Food ORORO is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of food options, and is rated 4.8 out of 5 stars on Google. The restaurant is open every day of the week, and can be contacted at 22 737 104.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6411,14 +9117,11 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Restaurant, check out mozart located at 5Q5Q+JHX mozart, Ex. rue Colbert. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 37.1584374, 9.7899918.</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated Restaurant with a diverse selection and convenient operating hours in the heart of Menzel Bourguiba?</t>
-        </is>
-      </c>
+          <t>Mozart is a restaurant located in Menzel Bourguiba, Tunisia, at coordinates (37.1489944, 9.788904). It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant has a cozy atmosphere and friendly staff, and it is a popular spot for locals and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6514,12 +9217,66 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated restaurant, check out Restaurant Manchou located at 5Q3V+HPC Restaurant Manchou, rue de Corse, Menzel Bourguiba. With a rating of 4.9, this popular destination is perfect for Restaurant lovers. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>Restaurant Manchou is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, and is rated 4.9 out of 5 stars on Google. The restaurant is located at 5Q3V+HPC Restaurant Manchou, rue de Corse, Menzel Bourguiba.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant called Restaurant Manchou in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church.
+Mid-Morning: Visit the Maison d'Art Dr Lfn, a cultural center that offers various activities like exhibitions and workshops.
+Midday: Try local cuisine at Restaurant Chaabene, known for its delicious dishes and a 4.8 rating.
+Afternoon: Engage in outdoor activities like hiking or birdwatching at Parc national d'Ichkel, a large natural reserve around Lake Ichkeul.
+Evening: Take a guided tour of the Municipalite de Menzel Bourguiba, an administration municipale that offers insights into the local governance.
+Night: Relax and enjoy scenic views at Port de Menzel Bourguiba, an active fishing harbor on the Mediterranean Sea.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sidi Yahia, wonderfully rated 4.3, is a cafe located at 5Q7M+HFR Cafe Sidi Yahia, Unnamed Road, Menzel Bourguiba, Tunisia, with coordinates (37.1489944, 9.788904). It is open from 06:00 to 23:00 and if you need to contact them, feel free to call the following number: 99 532 241.
+Restaurant Chaabene is located in Menzel Bourguiba, Tunisia, with the coordinates (37.1489944, 9.788904). It offers a menu filled with delicious dishes and also has a 4.8 rating based on 4 reviews. This restaurant is open from 9:00 AM to 11:00 PM every day and is a great place to visit for a memorable dining experience.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6621,14 +9378,63 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Chez Rzouga restaurant located at 5Q3W+R29 Chez Rzouga restaurant, Av. de l'Independance, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-14:00, but closed on dimanche. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/Chez+Rzouga+restaurant/data=!4m7!3m6!1s0x12e323f3dd291863:0x9eee7a35b13716ba!8m2!3d37.1545263!4d9.7951142!16s%2Fg%2F11gbf8y_4k!19sChIJYxgp3fMj4xIRuhY3sTV67p4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Chez Rzouga is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has a rating of 4.1 stars on Google Maps. The restaurant is open from 9:00 AM to 2:00 PM during the weekdays and is closed on Sundays. It is located at the coordinates (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Menzel Bourguiba that caters specifically to Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the active fishing harbor at Port de Menzel Bourguiba.
+Mid-Morning: Visit the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville.
+Midday: Try local cuisine at Chez Firas.
+Afternoon: Relax with a cup of coffee at Cafe Ben Fattoum.
+Evening: Explore the Parc National d'Ichkel.
+Night: Enjoy a delicious meal at Taco's.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ben Fattoum is a cafe located in Menzel Bourguiba, Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious coffee and friendly service. The cafe is open 24 hours a day, so you can enjoy a cup of coffee or tea any time of day or night. It is located at 4QXR+P36 Cafe ben Fattoum, Menzel Bourguiba.
+Chez Firas is a popular restaurant located in Menzel Bourguiba, Tunisia. It is situated at the coordinates (37.1489944, 9.788904) and has a rating of 4.5 out of 5 on Google. Chez Firas specializes in providing delicious meals and offers a cozy atmosphere to its patrons. Its menu offers a variety of dishes to choose from, ensuring that there is something for everyone.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6734,16 +9540,66 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a quick bite to eat, check out HolyMoly Restaurant located at HolyMoly Restaurant, Menzel Bourguiba. 
-This top-rated destination is perfect for fast food lovers and offers a range of options to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day, but closed on an unprovided date. 
-To get there, use these GPS coordinates: 37.1489944, 9.788904. 
-For more details, visit their website at https://www.google.com/maps/place/HolyMoly+Restaurant/data=!4m7!3m6!1s0x12e323a25f338d55:0x294f8a97cc43b478!8m2!3d37.1526925!4d9.791291!16s%2Fg%2F11rl2hbc1f!19sChIJVY0zX6Ij4xIReLRDzJeKTyk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 123 580.</t>
+          <t>HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated fast food restaurant that's open 24 hours a day in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the active fishing harbor of **Port de Menzel Bourguiba**.
+Mid-Morning: Try local cuisine at the highly-rated cafe **Octa**, known for its wide range of food and drinks.
+Midday: Visit the **Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville**, a beautiful and historic Catholic church.
+Afternoon: Enjoy recreational activities at **Parc national d'Ichkel**, a UNESCO World Heritage site offering hiking, wildlife viewing, and a museum.
+Evening: Experience cultural immersion at the **Maison d'Art Dr Lfn**, a cultural center offering exhibitions, workshops, and performances.
+Night: Dine at the 5.0-rated **Hollywood stars** restaurant, known for its grilled food.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Octa is a highly rated cafe located in Menzel Bourguiba, Tunisia. It opens from 4:30 AM to 1:00 AM and offers a wide range of food and drinks. The cafe's exact location is at coordinates (37.156877620917, 9.785021641012).
+Mozart is a restaurant located in Menzel Bourguiba at the coordinates (37.1489944, 9.788904). It has a rating of 4.1 out of 5 and is open from 9 am to midnight. The categories associated with this establishment are "Restaurant" and no review keywords are mentioned in the provided data.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6845,12 +9701,62 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-notch Pizzeria, check out Aroubi located at 4QXR+H39 Aroubi, Menzel Bourguiba. This highly-rated spot boasts a 4.5 rating and offers a delectable range of pizzas to choose from. To get there, use these coordinates: (37.1489944, 9.788904). For more information, call them at 20 407 683.</t>
+          <t>Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria with a rich menu and a prime location in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore Parc National d'Ichkel, a vast nature reserve with stunning hiking trails.
+Mid-Morning: Visit Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church.
+Midday: Have lunch at Funky Monkey, a highly-rated creperie serving delicious crepes.
+Afternoon: Visit Maison d'Art Dr Lfn, a cultural center offering exhibitions, workshops, and performances.
+Evening: Dine at Restaurant Ayari Wassef, a highly-rated restaurant with a delectable menu.
+Night: Relax with a drink at Cafe Flamenco, a popular spot with a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Flamenco is a cafe located in Menzel Bourguiba. It is rated 4.0 stars out of 12 reviews and is open from 06:00 to 00:00 on weekdays. It offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 5Q2V+RQP, Menzel Bourguiba, and can be reached by phone at [NAN].
+Restaurant Ayari Wassef is a highly-rated dining establishment located in Menzel Bourguiba, Tunisia. With a rating of 5.0 based on 7 reviews, the restaurant offers a delectable menu that has earned it a loyal following. Situated at 5Q4V+63J Ex. rue Charles de Gaulle, Restaurant Ayari Wassef is conveniently accessible to patrons seeking a culinary adventure.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6948,12 +9854,67 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out chez karim located at 5Q58+56C chez karim, P11, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>Chez Karim is a highly rated restaurant in Menzel Bourguiba, located at longitude 9.788904 and latitude 37.1489944. With a rating of 4.7 out of 5 and 6 reviews, it is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with a 4.7 rating in Menzel Bourguiba, perfect for those seeking culinary experiences?</t>
+          <t>Day Plan:
+Morning: Explore the historic Gare Ferroviaire de Menzel-Bourguiba, the city's bustling train station.
+Mid-Morning: Indulge in the local cuisine at the highly-rated Restaurant Chaabene, known for its welcoming ambiance and delectable dishes.
+Midday: Visit the magnificent Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a stunning Catholic church with historical significance.
+Afternoon: Enjoy a scenic walk through Parc national d'Ichkel, an ornithological reserve offering opportunities for nature observation and hiking.
+Evening: Experience the vibrant atmosphere at the Cafe azouzi, a renowned cafe with a cozy ambiance and delicious offerings.
+Night: Unwind at the Hotel HolyMoly Restaurant, a fast food restaurant open 24 hours a day with a featured image showcasing its inviting exterior.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe azouzi is a cafe located in menzel bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The cafe has a good rating of 4.0 and offers a variety of services and products.
+Restaurant Chaabene is a highly-rated restaurant located in Menzel Bourguiba. With a 4.8 rating based on 4 reviews, it offers a variety of dishes in a welcoming atmosphere. It is conveniently located at 5Q3W+4QX on Boulevard Saadi Carnot, accessible from the city center. The restaurant is open from 09:00-23:00 daily, providing ample time to enjoy a meal or a late-night snack.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7051,12 +10012,62 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>fTyr bw`wn is a top-rated restaurant located at rue de Corse, Menzel Bourguiba. Rated 5.0, it's a popular destination for restaurant lovers. For more information, visit their website at https://www.google.com/maps/place/%D9%81%D8%B7%D8%A7%D9%8A%D8%B1+%D8%A8%D9%88%D8%B9%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x12e323000593502f:0xa41eeda5851105fd!8m2!3d37.1540595!4d9.7941231!16s%2Fg%2F11h52n0y8b!19sChIJL1CTBQAj4xIR_QURhaXtHqQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>fTyr bw`wn is a restaurant located in fTyr bw`wn, rue de Corse, Menzel Bourguiba, Tunisia with GPS coordinates (37.1489944, 9.788904). Rated 5.0 out of 5 stars based on 6 reviews, this restaurant offers a variety of dishes and services.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where can you find the highly-rated restaurant, fTyr bw`wn, known for its top-notch dining experience on rue de Corse in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Exploring Parc national d'Ichkel
+Mid-Morning: Visiting Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville
+Midday: Trying local cuisine at Taco's
+Afternoon: Enjoying scenic views at Port de Menzel Bourguiba
+Evening: Relaxing with a massage at Maison d'Art Dr Lfn
+Night: Participating in a cultural immersion event at Municipalite de Menzel Bourguiba</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Hammadi is located in Menzel Bourguiba, Tunisia. It is a cafe that offers its customers a variety of food and beverages. It gets 5.0/5 ratings on Google and is open from 6:00 am to 9:00 pm.
+Fast Food ORORO is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of food options, and is rated 4.8 out of 5 stars on Google. The restaurant is open every day of the week, and can be contacted at 22 737 104.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7154,12 +10165,72 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Resto L'mama located at 5Q4V+M63 Cafe Resto L'mama, rue de la republique. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 37.154257804163, 9.790884531968. For more details, visit their website at https://www.google.com/maps/place/Cafe+Resto+L%27mama/data=!4m7!3m6!1s0x12e323f3ad8f6c4b:0xd955e3fd62d4434!8m2!3d37.156631!4d9.7930339!16s%2Fg%2F11hd1qvmp3!19sChIJS2yPrfMj4xIRNEQt1j9elQ0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Resto L'mama is a 4.8-star restaurant located in Menzel Bourguiba, Tunisia. It's on rue de la republique and serves cuisine in the Restaurant category.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant destination in Menzel Bourguiba with a 4.8 rating and GPS coordinates of 37.154257804163, 9.790884531968?</t>
+          <t>Day Plan:
+Morning:
+- Explore the Gare Ferroviaire de Menzel-Bourguiba, the city's train station.
+Mid-Morning:
+- Visit the La Maison d'Art Dr Lfn, a cultural center featuring exhibitions and performances.
+Midday:
+- Try local cuisine at Taco's, a popular spot for tacos and other Mexican dishes.
+Afternoon:
+- Stroll through Parc national d'Ichkel, a nature reserve offering hiking trails and wildlife viewing.
+Evening:
+- Check out "Funky Monkey," a highly-rated creperie for a delicious and cozy dining experience.
+Night:
+- Relax and enjoy the evening ambiance at Hollywood Stars, a cafe and grill with outdoor seating and a welcoming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sidi Yahia is a cafe located in Menzel Bourguiba, Tunisia, with a rating of 4.3 stars out of 19 reviews. It is open daily from 6:00 AM to 11:00 PM and offers a variety of cafe and snack options. The cafe is located at the coordinates (37.1489944, 9.788904) and can be contacted by phone at 99 532 241.
+Pizza Frryville is a 4.5-rated restaurant located in Menzel Bourguiba, Tunisia (37.15368, 9.78594). It is open from 9:00 AM to 11:00 PM daily and offers a variety of food options, as well as a featured image (https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=eltSST1WEZSriHWD3Z_WHA&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=272.22913&amp;pitch=0&amp;thumbfov=100).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7261,13 +10332,69 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, Restaurant Chaabene located at 5Q3W+4QX Restaurant Chaabene, blvd Saadi Carnot, is a great option. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open 09:00-23:00 each day. To get there, use these GPS coordinates: 37.1489944, 9.788904. To find out more, visit their website at .</t>
+          <t>Nestled in the charming town of Menzel Bourguiba, the highly-rated Restaurant Chaabene awaits patrons. Boasting a welcoming atmosphere and delectable cuisine, this establishment has earned a 4.8-star rating from satisfied diners. With its convenient location at 5Q3W+4QX on Boulevard Saadi Carnot, Restaurant Chaabene is easily accessible to both locals and visitors.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>What top-rated restaurant in Menzel Bourguiba is renowned for its exceptional dining experience and convenient location, perfect for those seeking culinary adventures?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the bustling port of Port de Menzel Bourguiba and witness the lively fishing activities.
+**Mid-Morning:**
+* Try local cuisine at Chez Mourad - Lablabi, renowned for its authentic Tunisian dish.
+**Midday:**
+* Visit the beautiful Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a historic Catholic church.
+**Afternoon:**
+* Enjoy scenic views at Parc National d'Ichkel, a vast ornithological and natural reserve with diverse trails.
+**Evening:**
+* Relax with a traditional tea at Cafe la pausegout, known for its cozy ambiance.
+**Night:**
+* Experience local culture at a performance or exhibition at the Maison d'Art Dr Lfn, a vibrant cultural center.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Flamenco is a cafe located in Menzel Bourguiba, Tunisia. It is open from 6am to midnight and offers a variety of food and drinks. The cafe is rated 4.0 out of 5 stars on Google and has received 12 reviews.
+Chez Mourad - Lablabi is a restaurant famous for its hearty and flavorful Lablabi, a traditional Tunisian dish. Located in the heart of Menzel Bourguiba, the restaurant is a popular spot for locals and tourists alike. With four stars on Google and rave reviews, Chez Mourad - Lablabi is a culinary gem.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7365,15 +10492,68 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Chez Mourad - Lablabi located at 5Q2W+G46 Chez Mourad - Lablabi, Menzel Bourguiba. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. 
-For more details, visit their website at https://www.google.com/maps/place/Chez+Mourad+-+Lablabi/data=!4m7!3m6!1s0x12e323f424608fb3:0x2739f1931071fd93!8m2!3d37.1512788!4d9.7952724!16s%2Fg%2F11hcnvfwm2!19sChIJs49gJPQj4xIRk_1xEJPxOSc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Chez Mourad - Lablabi is a restaurant famous for its hearty and flavorful Lablabi, a traditional Tunisian dish. Located in the heart of Menzel Bourguiba, the restaurant is a popular spot for locals and tourists alike. With four stars on Google and rave reviews, Chez Mourad - Lablabi is a culinary gem.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated restaurant (4.3 stars) perfect for Restaurant lovers, offering a unique dining experience?</t>
+          <t>Day Plan:
+Morning:
+* Explore Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea, and witness the bustling activity of local fishermen.
+Mid-Morning:
+* Try local cuisine at "Restaurant nouri," a highly-rated restaurant specializing in local cuisine. Savor the authentic flavors of Tunisian dishes.
+Midday:
+* Visit the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church. Admire its architectural beauty and learn about its religious significance.
+Afternoon:
+* Enjoy a refreshing walk or bike ride at Parc national d'Ichkel, a large ornithological and natural reserve. Observe the diverse local fauna and flora.
+Evening:
+* Have dinner at "Taco's," a restaurant known for its delicious tacos, crepes, and desserts. Experience the vibrant local culinary scene.
+Night:
+* Relax and unwind at "Funky Monkey," a highly-rated creperie. Indulge in sweet and savory crepes while enjoying the cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Hammadi is located in Menzel Bourguiba, Tunisia. It is a cafe that offers its customers a variety of food and beverages. It gets 5.0/5 ratings on Google and is open from 6:00 am to 9:00 pm.
+Restaurant nouri, located at 5Q4V+7X8 rue Victor Hugo, Menzel Bourguiba, Tunisia, is a highly-rated restaurant (5.0 stars) specializing in local cuisine. It has a convenient location for those looking for a dining experience in the area.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7479,14 +10659,62 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Roti Express located at 56 Av. de L'independance, Menzel Bourguiba. 
-This top-rated destination is perfect for Restaurant de volaille lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on lundi. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/R%C3%B4ti+Express/data=!4m7!3m6!1s0x12e3232b5ce29fd9:0x791ed4bdd270726d!8m2!3d37.1571093!4d9.7840742!16s%2Fg%2F11rsslk0cy!19sChIJ2Z_iXCsj4xIRbXJw0r3UHnk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 838 485.</t>
+          <t>Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated "Restaurant de volaille" destination, open 24/7 (except Mondays), in the Menzel Bourguiba area?</t>
+          <t>Day Plan:
+Morning: Exploring Port de Menzel Bourguiba
+Mid-Morning: Trying local cuisine at fTyr bw`wn
+Midday: Visiting Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville
+Afternoon: Enjoying scenic views at Parc national d'Ichkel
+Evening: Experiencing cultural immersion at Maison d'Art Dr Lfn
+Night: Relaxing with a tea at Cafe la pausegout</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sidi Yahia, wonderfully rated 4.3, is a cafe located at 5Q7M+HFR Cafe Sidi Yahia, Unnamed Road, Menzel Bourguiba, Tunisia, with coordinates (37.1489944, 9.788904). It is open from 06:00 to 23:00 and if you need to contact them, feel free to call the following number: 99 532 241.
+fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It has been rated 5.0 out of 5 by 6 reviewers on Google Maps. The restaurant's main category is Restaurant, and it is located at (37.1489944, 9.788904).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7588,14 +10816,63 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out La Couronne located at 5Q4M+PPX La Couronne, Av. de L'independance, Menzel Bourguiba.
-This top-rated destination is perfect for Restaurant lovers.
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit the link: https://www.google.com/maps/place/La+Couronne/data=!4m7!3m6!1s0x12e3238e7875498b:0xfb9d09d4636ca129!8m2!3d37.1568525!4d9.7843697!16s%2Fg%2F11fxxtghxh!19sChIJi0l1eI4j4xIRKaFsY9QJnfs?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>La Couronne, located at 5Q4M+PPX La Couronne, Av. de L'independance, Menzel Bourguiba, is a highly-rated restaurant with a 4.5 rating from 2 reviews. It offers a variety of dishes and its main category is Restaurant. The restaurant is open from 08:00-23:00 every day and is located at (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated restaurant destination, La Couronne, known for its exceptional dining experience and boasting a rating of 4.5?</t>
+          <t>Day Plan:
+Morning: Explore the historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville.
+Mid-Morning: Immerse yourself in the local culture at the Maison d'Art Dr Lfn.
+Midday: Savor the flavors of traditional Tunisian cuisine at Cafe Resto L'mama.
+Afternoon: Embark on a scenic hike through Parc National d'Ichkel.
+Evening: Head to Funky Monkey for delectable crepes and a cozy atmosphere.
+Night: Enjoy the lively ambiance at Cafe Sidi Yahia while sipping on aromatic tea.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sidi Yahia is a cafe located in Menzel Bourguiba, Tunisia, with a rating of 4.3 stars out of 19 reviews. It is open daily from 6:00 AM to 11:00 PM and offers a variety of cafe and snack options. The cafe is located at the coordinates (37.1489944, 9.788904) and can be contacted by phone at 99 532 241.
+Cafe Resto L'mama is a restaurant located in Menzel Bourguiba, Tunisia. It has a 4.8 rating based on 5 reviews. The restaurant's coordinates are (37.154257804163, 9.790884531968).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7701,12 +10978,66 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a Restaurant to satisfy your craving, check out Pizza Frryville located at 5Q4R+FXG Pizza Frryville, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their website at https://www.google.com/maps/place/Pizza+Frryville/data=!4m7!3m6!1s0x12e323c72af9f197:0x57b738879e73c53f!8m2!3d37.1561826!4d9.7924522!16s%2Fg%2F11g0g5j8q5!19sChIJl_H5Kscj4xIRP8Vznoc4t1c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 402 264.</t>
+          <t>Pizza Frryville is a 4.5-rated restaurant located in Menzel Bourguiba, Tunisia (37.15368, 9.78594). It is open from 9:00 AM to 11:00 PM daily and offers a variety of food options, as well as a featured image (https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=eltSST1WEZSriHWD3Z_WHA&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=272.22913&amp;pitch=0&amp;thumbfov=100).</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated Restaurant located in Menzel Bourguiba, accessible by GPS coordinates 37.15368, 9.78594?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea.
+Mid-Morning: Visit the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church that is a popular tourist destination.
+Midday: Try local cuisine at Resto Pizza Della Piazza, a highly-rated restaurant serving delicious pizza.
+Afternoon: Engage in outdoor activities like hiking or birdwatching at Parc National d'Ichkel, a vast ornithological and natural reserve.
+Evening: Enjoy a relaxing moment with a cup of tea at Cafe la pausegout, a tea room in the city of Menzel Bourguiba.
+Night: Experience the vibrant nightlife of "Funky Monkey," a highly-rated creperie known for its delicious crepes and cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover "cafe gouider," a popular cafe located in Menzel Bourguiba at 5Q4G+F92. Open from 04:00 to 01:00 daily, the cafe offers a convenient location for coffee enthusiasts. With an impressive 5.0 rating and positive reviews, cafe gouider is highly recommended for its offerings.
+Resto Pizza Della Piazza is a restaurant located in Menzel Bourguiba, Tunisia. It is situated at 7050 Av. de l'Independance and has a rating of 5.0 out of 5 stars based on 1 review. The restaurant serves pizza and is open from 9:00 AM to 8:00 PM. It does not have a website or social media presence.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7808,12 +11139,66 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a fabulous spot, try mozart, located at Ex. rue Colbert. With an impressive 4.1 rating and a Restaurant as its top category, this destination is a perfect pick. mozart is open during these hours: 09:00-00:00. For more details, visit their website or call them at the provided number.</t>
+          <t>**Mozart**, a renowned restaurant situated in the heart of Menzel Bourguiba, is a haven for food enthusiasts. Located at the coordinates (37.1489944, 9.788904), it offers an unmatched dining experience from 9:00 AM to midnight daily. With a rating of 4.1 out of 5 based on 33 reviews, it's a testament to its culinary excellence. While its website and contact information remain unavailable, its featured image showcases the restaurant's chic ambiance and inviting atmosphere.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>If you're looking for a highly-rated dining experience in Menzel Bourguiba, what restaurant should you visit with a location at Ex. rue Colbert and a 4.1 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Menzel Bourguiba at Port de Menzel Bourguiba
+Mid-Morning: Trying local cuisine at Taco's
+Midday: Visiting the Gare Ferroviaire de Menzel-Bourguiba
+Afternoon: Enjoying scenic views at Parc National d'Ichkel
+Evening: Relaxing with a crepe at "Funky Monkey"
+Night: Shopping at the Gare Routière de Menzel-Bourguiba</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It is known for its welcoming atmosphere, friendly staff, and delicious coffee. The cafe is open from 4:30 am to 11:30 pm, making it a great place to grab a morning coffee or relax with friends in the evening. Café Ben Mahmoud is also a great place to people-watch, as it is located on a busy street. The cafe is easy to find, as it is located just off the main road.
+fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has received positive reviews from customers, earning a rating of 5.0 out of 5. The restaurant is located at the coordinates (37.1489944, 9.788904).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7919,12 +11304,68 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great meal, check out Taco's located at Av. de L'independance, Menzel Bourguiba 7050. This top-rated destination is perfect for Restaurant de tacos lovers and offers a range of categories to choose from, including Creperie and Restaurant de desserts. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-21:30, but closed on Tuesdays. To get there, use these GPS coordinates: (37.156877620917, 9.785021641012). For more details, visit their website at https://www.google.com/maps/place/Taco%27s/data=!4m7!3m6!1s0x12e32397bd3d15a9:0xbc0de21a7911715f!8m2!3d37.1567525!4d9.7858567!16s%2Fg%2F11nn2v0_0q!19sChIJqRU9vZcj4xIRX3EReRriDbw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 314 227.</t>
+          <t>Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated restaurant offering tacos and other cuisines, making it a popular destination for locals and visitors alike?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the historic Port de Menzel Bourguiba, a bustling fishing harbor on the Mediterranean Sea.
+**Mid-Morning:**
+* Savor a delightful breakfast and local pastries at Café Iris, a cozy spot with a welcoming ambiance.
+**Midday:**
+* Visit the Parc national d'Ichkel, a UNESCO World Heritage site and nature reserve, offering hiking, wildlife viewing, and scenic lake views.
+**Afternoon:**
+* Try the famous poultry dishes at Roti Express, a highly-rated 24-hour restaurant with exceptional culinary offerings.
+**Evening:**
+* Experience cultural immersion at the Maison d'Art Dr Lfn, a cultural center showcasing exhibitions, workshops, and performances.
+**Night:**
+* Enjoy a delicious dinner at "fTyr bw`wn," a top-rated restaurant known for its excellent cuisine and friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Iris is a cozy cafe located in Menzel Bourguiba, Tunisia. Open from 5 AM to midnight, it offers a warm and welcoming atmosphere for locals and tourists alike. The cafe serves a variety of beverages, including coffee, tea, and fresh juices. In addition, Café Iris offers a selection of pastries and light snacks, making it a great spot for a quick bite or a leisurely afternoon break. With its convenient location and friendly staff, Café Iris is a popular destination for those looking for a relaxing cup of coffee or a casual gathering place.
+fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It has been rated 5.0 out of 5 by 6 reviewers on Google Maps. The restaurant's main category is Restaurant, and it is located at (37.1489944, 9.788904).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8022,12 +11463,62 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Restaurant Manchou, a highly-rated restaurant in menzel bourguiba, is an ideal destination for Restaurant lovers. Boasting a rating of 4.9, this establishment offers a delightful range of Restaurant options. Located at 5Q3V+HPC Restaurant Manchou, rue de Corse, Menzel Bourguiba, Restaurant Manchou is open during regular hours. To learn more, visit their website at https://www.google.com/maps/place/Restaurant+Manchou/data=!4m7!3m6!1s0x12e3230a8121f6f1:0x124fe050cc4d27a5!8m2!3d37.15394!4d9.794281!16s%2Fg%2F11h9g8md__!19sChIJ8fYhgQoj4xIRpSdNzFDgTxI?authuser=0&amp;hl=fr&amp;rclk=1 or call them for details.</t>
+          <t>Restaurant Manchou is a highly rated restaurant located in Menzel Bourguiba, Tunisia at coordinate (37.1489944, 9.788904). It offers a variety of dishes and has received 14 reviews with an average rating of 4.9.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where can you find the highly-rated Restaurant Manchou, a popular destination in Menzel Bourguiba known for its exceptional restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore the bustling streets of Menzel Bourguiba, soaking in the local atmosphere and immersing yourself in the vibrant culture.
+Mid-Morning: Visit the historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, admiring its architectural beauty and learning about its significance in the region.
+Midday: Indulge in the flavors of Tunisian cuisine at Taco's, savoring the tantalizing tacos and other traditional dishes.
+Afternoon: Escape to the serenity of Parc national d'Ichkel, exploring its scenic trails and marveling at the diverse wildlife.
+Evening: Take a guided tour of the Port de Menzel Bourguiba, observing the vibrant fishing harbor and learning about its role in the local economy.
+Night: Experience the lively ambiance of Hollywood stars, enjoying grilled delicacies and engaging in animated conversations while immersing in the local culture.</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café la Sirene is a highly-rated cafe located in Menzel Bourguiba, Tunisia. It boasts a cozy and inviting atmosphere, offering a delightful experience for patrons. With a rating of 4.6 based on 8 reviews, this establishment has earned the喜爱 of locals and visitors alike.
+fTyr bw`wn is a restaurant located in fTyr bw`wn, rue de Corse, Menzel Bourguiba, Tunisia with GPS coordinates (37.1489944, 9.788904). Rated 5.0 out of 5 stars based on 6 reviews, this restaurant offers a variety of dishes and services.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8129,14 +11620,62 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and craving a satisfying meal, head to Fast Food ORORO at 5Q4W+36G.
-This top-rated restaurant, with a score of 4.8, is a favorite among locals and visitors alike. Serving tantalizing dishes, you're sure to find something to suit your taste buds.
-Don't miss out on this culinary gem. Call 22 737 104 for reservations or more information.</t>
+          <t>Fast Food ORORO is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of food options, and is rated 4.8 out of 5 stars on Google. The restaurant is open every day of the week, and can be contacted at 22 737 104.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a highly-rated dining experience with a local touch, what restaurant should you visit and why?</t>
+          <t>Day Plan:
+Morning: Explore Port de Menzel Bourguiba, the bustling active fishing harbor.
+Mid-Morning: Try local cuisine at HolyMoly Restaurant, known for its 24-hour service and diverse menu.
+Midday: Visit the Municipalite de Menzel Bourguiba, the local administration center, to learn about the city's governance and history.
+Afternoon: Engage in outdoor activities like hiking or birdwatching at Parc National d'Ichkel, a vast ornithological and natural reserve.
+Evening: Experience cultural immersion at Maison d'Art Dr Lfn, a cultural center offering exhibitions, workshops, and performances.
+Night: Relax with a sweet treat at Hollywood stars, a cozy cafe and grill, and enjoy the evening ambiance.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sidi Yahia is a cafe located in Menzel Bourguiba, Tunisia, with a rating of 4.3 stars out of 19 reviews. It is open daily from 6:00 AM to 11:00 PM and offers a variety of cafe and snack options. The cafe is located at the coordinates (37.1489944, 9.788904) and can be contacted by phone at 99 532 241.
+Mozart is a restaurant located in Menzel Bourguiba, Tunisia, at coordinates (37.1489944, 9.788904). It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant has a cozy atmosphere and friendly staff, and it is a popular spot for locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8238,14 +11777,63 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Chez Rzouga restaurant located at 5Q3W+R29 Chez Rzouga restaurant, Av. de l'Independance, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-14:00, but closed on dimanche. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/Chez+Rzouga+restaurant/data=!4m7!3m6!1s0x12e323f3dd291863:0x9eee7a35b13716ba!8m2!3d37.1545263!4d9.7951142!16s%2Fg%2F11gbf8y_4k!19sChIJYxgp3fMj4xIRuhY3sTV67p4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Chez Rzouga restaurant is a highly-rated eatery in menzel bourguiba, receiving a 4.1-star rating from 8 reviews. Renowned for its mouth-watering dishes, it's situated conveniently at 5Q3W+R29, Av. de l'Independance in menzel bourguiba 7050. The restaurant is operational from 09:00 to 14:00 during weekdays, but remains closed on Sundays.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a wide variety of cuisine options in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the charming Port de Menzel Bourguiba, where you can witness the bustling fishing harbor and admire the boats.
+Mid-Morning: Embark on a guided tour of the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church.
+Midday: Indulge in a delightful lunch at Mozart, a renowned restaurant known for its exquisite dining experience and exceptional cuisine.
+Afternoon: Immerse yourself in nature's beauty by visiting Parc national d'Ichkel, a UNESCO World Heritage site offering hiking trails and opportunities to spot diverse wildlife.
+Evening: Venture into the vibrant atmosphere of Cafe la pausegout, a cozy tea room where you can relax and enjoy a refreshing cup of tea.
+Night: Experience the local culture by participating in a traditional Tunisian dance performance at a cultural center like the Maison d'Art Dr Lfn.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe maryouma is a cafe located in Menzel Bourguiba, Tunisia, at the coordinates (37.156877620917, 9.785021641012). It has a rating of 4.5 stars and offers a variety of beverages and snacks.
+**Mozart**, a renowned restaurant situated in the heart of Menzel Bourguiba, is a haven for food enthusiasts. Located at the coordinates (37.1489944, 9.788904), it offers an unmatched dining experience from 9:00 AM to midnight daily. With a rating of 4.1 out of 5 based on 33 reviews, it's a testament to its culinary excellence. While its website and contact information remain unavailable, its featured image showcases the restaurant's chic ambiance and inviting atmosphere.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8343,12 +11931,63 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe la Sirene located at 5Q5M+34P Cafe la Sirene, Av. de L'independance, Menzel Bourguiba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 37.157683, 9.782854. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+la+Sir%C3%A9ne/data=!4m7!3m6!1s0x12e3238e46ab7a23:0xd0172018467d7763!8m2!3d37.157708!4d9.7828259!16s%2Fg%2F1hf418fwz!19sChIJI3qrRo4j4xIRY3d9RhggF9A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe La Sirene is a highly rated establishment with 4.6 stars and 8 reviews. Located at longitude 9.782854 and latitude 37.157683, this cafe is situated in the heart of Menzel Bourguiba.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find Cafe la Sirene, a top-rated destination for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea.
+Mid-Morning: Visit Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church.
+Midday: Try local cuisine at Taco's, a popular spot for locals and tourists alike, offering a variety of tacos and other Mexican dishes.
+Afternoon: Enjoy a relaxing moment with a cup of tea at Cafe la pausegout, a tea room in Menzel Bourguiba.
+Evening: Take a guided tour of Parc national d'Ichkel, a large ornithological and natural reserve located around Lake Ichkeul.
+Night: Experience cultural immersion at Maison d'Art Dr Lfn, a cultural center offering exhibitions, workshops, and performances.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Flamenco is a cafe located in Menzel Bourguiba, Tunisia. It is open from 6am to midnight and offers a variety of food and drinks. The cafe is rated 4.0 out of 5 stars on Google and has received 12 reviews.
+fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It has been rated 5.0 out of 5 by 6 reviewers on Google Maps. The restaurant's main category is Restaurant, and it is located at (37.1489944, 9.788904).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8454,12 +12093,73 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out L"escale located at 5Q48+HHQ L"escale, P11, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://best--restaurants.blogspot.com/.</t>
+          <t>L"escale is a restaurant located in Menzel Bourguiba, Tunisia. It has a 4.5-star rating on Google and offers a wide variety of dishes. The restaurant is open from 9am to 11pm, and is closed on Sundays. L"escale is located at 37.1489944, 9.788904.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant called L'escale with a wide selection of dining options in the P11 area of Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning:
+- Start the day with a delightful cup of coffee or tea at Cafe Ben Mahmoud in the heart of Menzel Bourguiba.
+Mid-Morning:
+- Embark on a guided tour of the Municipalite de Menzel Bourguiba to gain insights into the city's governance and history.
+Midday:
+- Indulge in the authentic flavors of Tunisian cuisine at Mozart, a highly-rated restaurant known for its traditional and international dishes.
+Afternoon:
+- Discover the diverse ecosystem and natural beauty of Parc national d'Ichkel, a renowned ornithological reserve, on a captivating hike.
+Evening:
+- Experience the vibrant ambiance of "Funky Monkey," a creperie renowned for its delicious crepes and cozy atmosphere.
+Night:
+- Unwind and relax at the Hollywood stars cafe and grill, savoring a delectable dinner while enjoying the lively atmosphere of Menzel Bourguiba at night.</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It offers a wide variety of coffee, tea, and other beverages, as well as a selection of food items such as sandwiches and pastries. The cafe is open from 4:30 AM to 11:30 PM every day and is located at 5Q5J+72W Cafe Ben Mahmoud, Av. de L'independance. Reviews praise its ambiance and friendly staff.
+Mozart is a restaurant located in Menzel Bourguiba, Tunisia, at coordinates (37.1489944, 9.788904). It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant has a cozy atmosphere and friendly staff, and it is a popular spot for locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8565,12 +12265,67 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out HolyMoly Restaurant located at HolyMoly Restaurant, Menzel Bourguiba. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.1526925, 9.791291. For more details, visit their website at https://www.google.com/maps/place/HolyMoly+Restaurant/data=!4m7!3m6!1s0x12e323a25f338d55:0x294f8a97cc43b478!8m2!3d37.1526925!4d9.791291!16s%2Fg%2F11rl2hbc1f!19sChIJVY0zX6Ij4xIReLRDzJeKTyk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 123 580.</t>
+          <t>HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restauration rapide destination in Menzel Bourguiba that is known for its wide selection and open 24/7 convenience?</t>
+          <t>Day Plan:
+Morning: Exploring the active fishing harbor at Port de Menzel Bourguiba
+Mid-Morning: Trying local cuisine at HolyMoly Restaurant
+Midday: Visiting the beautiful and historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville
+Afternoon: Enjoying hiking and wildlife viewing opportunities at Parc national d'Ichkel
+Evening: Taking a guided tour of the Gare Ferroviaire de Menzel-Bourguiba train station
+Night: Experiencing cultural immersion at the Maison d'Art Dr Lfn</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It offers a wide variety of coffee, tea, and other beverages, as well as a selection of food items such as sandwiches and pastries. The cafe is open from 4:30 AM to 11:30 PM every day and is located at 5Q5J+72W Cafe Ben Mahmoud, Av. de L'independance. Reviews praise its ambiance and friendly staff.
+"Trip Chocolat" is a restaurant located in Menzel Bourguiba, Tunisia (coordinates: 37.1489944, 9.788904). The restaurant has a 4.5-star rating and is open from 08:00-00:00 every day of the week. It specializes in providing a variety of food options and is a popular spot for locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8672,12 +12427,68 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something tasty to eat, check out Restaurant Ayari Wassef located at 5Q4V+63J Restaurant Ayari Wassef, Ex. rue Charles de Gaulle, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of restaurant options to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. To contact them directly call on 23 581 838.</t>
+          <t>Restaurant Ayari Wassef is a highly-rated dining establishment located in Menzel Bourguiba, Tunisia. With a rating of 5.0 based on 7 reviews, the restaurant offers a delectable menu that has earned it a loyal following. Situated at 5Q4V+63J Ex. rue Charles de Gaulle, Restaurant Ayari Wassef is conveniently accessible to patrons seeking a culinary adventure.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant destination with a rating of 5.0 in Menzel Bourguiba, Tunisia?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the picturesque Port de Menzel Bourguiba, a bustling fishing harbor.
+**Mid-Morning:**
+* Visit the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, an iconic Catholic church.
+**Midday:**
+* Try local cuisine at Chez Rzouga, a restaurant known for its delicious dishes.
+**Afternoon:**
+* Enjoy scenic views at the Parc national d'Ichkel, a natural reserve known for its birdlife.
+**Evening:**
+* Engage in outdoor activities such as hiking at Parc national d'Ichkel.
+**Night:**
+* Relax with a cup of coffee or tea at Café Iris, a cozy cafe known for its warm and welcoming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Iris is a cozy cafe located in Menzel Bourguiba, Tunisia. Open from 5 AM to midnight, it offers a warm and welcoming atmosphere for locals and tourists alike. The cafe serves a variety of beverages, including coffee, tea, and fresh juices. In addition, Café Iris offers a selection of pastries and light snacks, making it a great spot for a quick bite or a leisurely afternoon break. With its convenient location and friendly staff, Café Iris is a popular destination for those looking for a relaxing cup of coffee or a casual gathering place.
+Chez Rzouga is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has a rating of 4.1 stars on Google Maps. The restaurant is open from 9:00 AM to 2:00 PM during the weekdays and is closed on Sundays. It is located at the coordinates (37.156877620917, 9.785021641012).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8775,14 +12586,72 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out fTyr bw`wn located at rue de Corse, Menzel Bourguiba.
-This top-rated destination is perfect for Restaurant lovers.
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/%D9%81%D8%B7%D8%A7%D9%8A%D8%B1+%D8%A8%D9%88%D8%B9%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x12e323000593502f:0xa41eeda5851105fd!8m2!3d37.1540595!4d9.7941231!16s%2Fg%2F11h52n0y8b!19sChIJL1CTBQAj4xIR_QURhaXtHqQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It has been rated 5.0 out of 5 by 6 reviewers on Google Maps. The restaurant's main category is Restaurant, and it is located at (37.1489944, 9.788904).</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated destination loved by Restaurant enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Begin your day by exploring the historical **Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville**, admiring its architectural beauty and religious significance.
+**Mid-Morning:**
+* Immerse yourself in the local culture at the **Maison d'Art Dr Lfn**, participating in workshops, exhibitions, or performances that showcase Menzel Bourguiba's artistic spirit.
+**Midday:**
+* Savor the flavors of Tunisian cuisine at **Restaurant Manchou**, renowned for its delectable dishes and exceptional 4.9-star rating.
+**Afternoon:**
+* Embark on a nature adventure at **Parc national d'Ichkel**, a UNESCO World Heritage site offering picturesque hiking trails and wildlife sightings.
+**Evening:**
+* Head to **Cafe la pausegout** for a relaxing tea break, indulging in the warmth and tranquility of this traditional tea room.
+**Night:**
+* Experience the vibrant nightlife at **Hollywood stars**, a cafe and grill serving delightful dishes and offering a lively ambiance to end your day on a high note.</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe**
+Located on the Av. de L'independance in Menzel Bourguiba, Cafe is a popular spot for locals and tourists alike. The cafe offers a variety of drinks and snacks, including coffee, tea, pastries, and sandwiches. It is open from 5:00 AM to 11:00 PM daily.
+The cafe is situated in a convenient location, just a short walk from the city center. It is also close to several other attractions, including the Menzel Bourguiba Museum and the Sidi Bouzid Mosque.
+The cafe has a warm and inviting atmosphere, with cozy seating and friendly staff. It is a great place to relax and enjoy a cup of coffee or a bite to eat.
+Restaurant Manchou is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, and is rated 4.9 out of 5 stars on Google. The restaurant is located at 5Q3V+HPC Restaurant Manchou, rue de Corse, Menzel Bourguiba.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8884,12 +12753,62 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Pizzeria, check out Aroubi located at 4QXR+H39, Aroubi. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, call them at 20 407 683.</t>
+          <t>A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>In Menzel Bourguiba, which Pizzeria with a 4.5-star rating is a must-visit spot due to its exceptional quality?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, marveling at its architectural beauty.
+Mid-Morning: Indulge in the local culinary delights at Taco's, savoring the authentic flavors of Mexican cuisine at this popular spot.
+Midday: Stroll through the bustling atmosphere of the Gare Routière de Menzel-Bourguiba, observing the vibrant energy of the city's transportation hub.
+Afternoon: Immerse yourself in nature's tranquility at Parc national d'Ichkel, embarking on a scenic hike through its diverse landscapes.
+Evening: Experience the lively atmosphere of L"escale, indulging in a delectable dinner while enjoying the restaurant's inviting ambiance.
+Night: Unwind with a relaxing evening at Funky Monkey, relishing the cozy ambiance and indulging in the delightful flavors of their famous crepes.</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Octa** is a highly-rated cafe located in Menzel Bourguiba, Tunisia. With a 4.8-star rating based on 4 reviews, Octa is known for its excellent service and cozy ambiance. Situated conveniently on Av. de l'Independance, the cafe is open from 4:30 AM to 1:00 AM daily, catering to customers with various needs.
+L"escale is a restaurant located in Menzel Bourguiba, Tunisia. It has a 4.5-star rating on Google and offers a wide variety of dishes. The restaurant is open from 9am to 11pm, and is closed on Sundays. L"escale is located at 37.1489944, 9.788904.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8991,12 +12910,66 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and want a coffee, try Cafe Ben Mahmoud on Av. de L'independance, Menzel Bourguiba. This top-rated cafe is perfect for cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 04:30-23:30. To get there, use these GPS coordinates: 37.1582466, 9.7801053.</t>
+          <t>Cafe Ben Mahmoud is a cafe located in Menzel Bourguiba, Tunisia, offering a cozy atmosphere and a variety of beverages. It is situated on Av. de L'independance, with coordinates (37.1582466, 9.7801053).</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated Cafe Ben Mahmoud in Menzel Bourguiba, known for its exceptional coffee experience?</t>
+          <t>Day Plan:
+Morning: Explore Parc National d'Ichkel, a vast nature reserve with hiking trails and diverse wildlife.
+Mid-Morning: Try local cuisine at Taco's, a popular restaurant known for its tacos and great service.
+Midday: Visit the historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful Catholic church.
+Afternoon: Enjoy scenic views at Port de Menzel Bourguiba, an active fishing harbor on the Mediterranean Sea.
+Evening: Visit the Gare Ferroviaire de Menzel-Bourguiba, a central train station boasting restaurants, cafes, and shops.
+Night: Experience cultural immersion at the Maison d'Art Dr Lfn, a cultural center offering exhibitions, workshops, and performances.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Khemiri is a cafe located near Passage Tinja in Menzel Bourguiba, Tunisia. Worthy of note is that it has a 5-star rating from 2 reviews and the contact number is 53 164 642.
+Chez Karim is a highly rated restaurant in Menzel Bourguiba, located at longitude 9.788904 and latitude 37.1489944. With a rating of 4.7 out of 5 and 6 reviews, it is a popular destination for locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9094,12 +13067,63 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great restaurant, check out chez karim located at 5Q58+56C chez karim, P11, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. For more details, visit their website at or call them at .</t>
+          <t>"Chez Karim" is a restaurant located in Menzel Bourguiba, Tunisia. The coordinates are (37.1489944, 9.788904) and the rating is 4.7 out of 5 based on 6 reviews.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Menzel Bourguiba with a diverse menu and excellent customer ratings?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Port de Menzel Bourguiba, admiring the vibrant fishing harbor and taking in the fresh sea air.
+Mid-Morning: Visit the Municipalite de Menzel Bourguiba, learning about local governance and gaining insights into the town's history and culture.
+Midday: Indulge in a culinary adventure at Taco's, savoring authentic Mexican dishes and immersing yourself in the lively local atmosphere.
+Afternoon: Escape to Parc national d'Ichkel, embracing the beauty of nature as you embark on a captivating hike amidst diverse flora and fauna.
+Evening: Experience the buzzing ambiance of Hollywood stars, enjoying a delightful dinner while immersing yourself in the vibrant atmosphere of this local favorite.
+Night: Head to Cafe Iris for a relaxing nightcap, sipping on a refreshing beverage as you unwind from the day's adventures and soak in the cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Iris**
+Cafe Iris is a cafe situated in Menzel Bourguiba, Tunisia. Open from 05:00-00:00, it offers a variety of refreshments and meals. Located at the coordinates 37.1489944, 9.788904, it's a great spot to relax and enjoy delicious offerings.
+"Chez Karim" is a restaurant located in Menzel Bourguiba, Tunisia. The coordinates are (37.1489944, 9.788904) and the rating is 4.7 out of 5 based on 6 reviews.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9197,14 +13221,76 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Resto L'mama located at 5Q4V+M63 Cafe Resto L'mama, rue de la republique. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 37.154257804163, 9.790884531968. For more details, visit their website at https://www.google.com/maps/place/Cafe+Resto+L%27mama/data=!4m7!3m6!1s0x12e323f3ad8f6c4b:0xd955e3fd62d4434!8m2!3d37.156631!4d9.7930339!16s%2Fg%2F11hd1qvmp3!19sChIJS2yPrfMj4xIRNEQt1j9elQ0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Resto L'mama is a restaurant located in Menzel Bourguiba, Tunisia. It has a 4.8 rating based on 5 reviews. The restaurant's coordinates are (37.154257804163, 9.790884531968).</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated restaurant destination with a 4.8 rating, perfect for Restaurant lovers, located at rue de la republique, with GPS coordinates of 37.154257804163, 9.790884531968?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Visit Shell Menzel Bourguiba for a convenient gas station stop for your transportation needs.
+* Explore the Municipalite de Menzel Bourguiba for local administrative services.
+**Mid-Morning:**
+* Try local cuisine at Trip Chocolat or Funky Monkey for a delicious culinary experience in Menzel Bourguiba.
+* Immerse yourself in culture at the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville or the Maison d'Art Dr Lfn.
+**Midday:**
+* Relax with a soothing activity at Cafe Ennour or Cafe la pausegout for a refreshing break.
+* Enjoy a delectable meal at HolyMoly Restaurant or Hollywood stars for a satisfying lunch.
+**Afternoon:**
+* Explore the Gare Ferroviaire de Menzel-Bourguiba for a convenient train station service.
+* Engage in outdoor activities like hiking or birdwatching at Parc National d'Ichkel.
+* Shop for souvenirs or local goods at Aroubi.
+**Evening:**
+* Take part in local events or activities at Gare Routiere de Menzel-Bourguiba.
+* Dine at Roti Express for exceptional poultry dishes and quality service.
+**Night:**
+* Experience the vibrant fishing community at Port de Menzel Bourguiba.
+* Indulge in the flavors of Taco's for a delightful dinner.</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at the coordinates (37.1489944, 9.788904), it is a popular destination for locals and tourists alike. The cafe offers a warm and inviting ambiance, with friendly staff and a great selection of drinks and snacks. Its convenient location makes it an ideal place to relax and unwind while exploring the city.
+"Trip Chocolat" is a restaurant located in Menzel Bourguiba, Tunisia (coordinates: 37.1489944, 9.788904). The restaurant has a 4.5-star rating and is open from 08:00-00:00 every day of the week. It specializes in providing a variety of food options and is a popular spot for locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9306,12 +13392,62 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Restaurant, check out Restaurant Chaabene located at 5Q3W+4QX Restaurant Chaabene, blvd Saadi Carnot, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on []. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Chaabene/data=!4m7!3m6!1s0x12e32391120af0df:0xc87caf9746b2b40d!8m2!3d37.1528693!4d9.7969841!16s%2Fg%2F11hz9jf6lb!19sChIJ3_AKEpEj4xIRDbSyRpevfMg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant Chaabene is a highly-rated restaurant in Menzel Bourguiba, Tunisia, boasting a rating of 4.8 out of 5 stars. Open daily from 9 AM to 11 PM, it offers a diverse menu of culinary delights. Situated at the coordinates (37.1489944, 9.788904) on blvd Saadi Carnot, Restaurant Chaabene attracts diners with its delicious food and friendly service, making it a popular destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>Where can you find Restaurant Chaabene, a top-rated destination with a 4.8 rating, located in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the active fishing harbor of Port de Menzel Bourguiba, witnessing the daily rhythm of local fishermen.
+Mid-Morning: Visit the Catholic church, Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, to admire its historic architecture and serene atmosphere.
+Midday: Indulge in the local cuisine by trying delicious poultry dishes at the highly-rated restaurant, Roti Express.
+Afternoon: Take a guided tour of the Maison d'Art Dr Lfn, immersing yourself in the cultural activities and exhibitions it offers.
+Evening: Explore Parc National d'Ichkel, a vast natural reserve, and enjoy a serene walk along its hiking trails, relishing the beauty of its flora and fauna.
+Night: Wind down at Funky Monkey, a creperie known for its cozy ambiance and delectable crepes, savoring the perfect end to your day in Menzel Bourguiba.</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at the coordinates (37.1489944, 9.788904), it is a popular destination for locals and tourists alike. The cafe offers a warm and inviting ambiance, with friendly staff and a great selection of drinks and snacks. Its convenient location makes it an ideal place to relax and unwind while exploring the city.
+Restaurant nouri, located at 5Q4V+7X8 rue Victor Hugo, Menzel Bourguiba, Tunisia, is a highly-rated restaurant (5.0 stars) specializing in local cuisine. It has a convenient location for those looking for a dining experience in the area.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9413,14 +13549,63 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Trip Chocolat located at 5Q4R+XFV Trip Chocolat, rue Mirabeau, Menzel Bourguiba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>"Trip Chocolat" is a restaurant located in Menzel Bourguiba, Tunisia (coordinates: 37.1489944, 9.788904). The restaurant has a 4.5-star rating and is open from 08:00-00:00 every day of the week. It specializes in providing a variety of food options and is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a 4.5 rating that caters to Restaurant lovers in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville.
+Mid-Morning: Trying local cuisine at HolyMoly Restaurant, known for its 24-hour service and delicious dishes.
+Midday: Visiting the Cultural Center of Menzel Bourguiba, the Maison d'Art Dr Lfn, for a cultural immersion.
+Afternoon: Enjoying scenic views at Parc National d'Ichkel, a vast ornithological and natural reserve.
+Evening: Dining at "Funky Monkey," a highly-rated creperie, for a cozy ambiance and excellent culinary experience.
+Night: Relaxing with a cup of tea at Cafe la pausegout and enjoying a moment of relaxation while sipping a delicious tea.</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café el Gasri is a cafe located in Menzel Bourguiba, Tunisia. It is situated on Rue de la Liberte and has a rating of 5.0. The cafe is open 7 days a week and offers a variety of coffee and tea drinks. It is also a popular spot for locals to relax and socialize.
+Club Fast Food KN chez Jamila is a restaurant in Menzel Bourguiba, Tunisia. Situated in Rue Imam Sahnoun (GPS coordinates 37.1489944, 9.788904), it serves up a menu of delicious food and is open from 8 am to 10 pm every day except Sunday.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9522,12 +13707,62 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Restaurant Populaire Chez AbdelKrim located at 5Q3W+V34 Restaurant Populaire Chez AbdelKrim, Ex rue de Savoie, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website  or call them at .</t>
+          <t>Restaurant Populaire Chez AbdelKrim is a local restaurant in Menzel Bourguiba, Tunisia, rated 4.8 out of 5 by Google users. It offers a variety of traditional Tunisian dishes and is open daily from 9:00 AM to 11:00 PM. The restaurant is located at 5Q3W+V34, Ex rue de Savoie, and can be easily found on Google Maps with the coordinates (37.1489944, 9.788904).</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly rated destination for restaurant enthusiasts, earning a 4.8 rating and offering a variety of restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Municipalite de Menzel Bourguiba for an insight into the local administration.
+Mid-Morning: Try local cuisine at highly-rated Roti Express, known for its mouthwatering poultry dishes.
+Midday: Immerse yourself in nature at Parc national d'Ichkel, an ornithological and natural reserve offering stunning panoramic views.
+Afternoon: Visit the scenic Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea, and soak in the coastal ambiance.
+Evening: Enjoy grilled food and savor the ambiance at the 5-star Hollywood stars restaurant.
+Night: Relax and unwind with local tea flavors at the cozy Cafe la pausegout, a highly-rated tea room.</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café el Gasri is a cafe located in Menzel Bourguiba, Tunisia. It is situated on Rue de la Liberte and has a rating of 5.0. The cafe is open 7 days a week and offers a variety of coffee and tea drinks. It is also a popular spot for locals to relax and socialize.
+Lablebi 2 is a restaurant located in Menzel Bourguiba (37.1489944, 9.788904). The restaurant is highly rated with a score of 5.0 out of 5, based on one review.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9627,11 +13862,65 @@
           <t>menzel bourguiba</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.</t>
+        </is>
+      </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>**Question:**
-What extraordinary destination has a mysterious and unpronounceable name that begins with the letter 'n'?</t>
+          <t>Day Plan:
+Morning: Exploring Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea.
+Mid-Morning: Trying local cuisine at Cafe Resto L'mama, known for its delicious food and 4.8 rating.
+Midday: Visiting Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church.
+Afternoon: Enjoying a relaxing afternoon at Parc national d'Ichkel, admiring its stunning scenery and diverse ecosystem.
+Evening: Dining at Roti Express, a highly-rated poultry restaurant offering mouthwatering dishes and a 5.0 rating.
+Night: Experiencing the vibrant atmosphere of Gare Routiere de Menzel-Bourguiba, the bus station offering convenient transportation services.</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover "cafe gouider," a popular cafe located in Menzel Bourguiba at 5Q4G+F92. Open from 04:00 to 01:00 daily, the cafe offers a convenient location for coffee enthusiasts. With an impressive 5.0 rating and positive reviews, cafe gouider is highly recommended for its offerings.
+Cafe Resto L'mama is a restaurant located in Menzel Bourguiba, Tunisia. It has a 4.8 rating based on 5 reviews. The restaurant's coordinates are (37.154257804163, 9.790884531968).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9733,12 +14022,67 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Cafe, check out Cafe located at 5Q5G+FQX Cafe, Av. de L'independance, Menzel Bourguiba. This destination offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at  or call them at .</t>
+          <t>Cafe is a 4.3-rated cafe located at 5Q5G+FQX Cafe, Av. de L'independance, Menzel Bourguiba. The cafe is open from 5 am to 11 pm and offers a variety of food and drinks. It is located at the coordinates (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe with a wide variety of options in Menzel Bourguiba?</t>
+          <t>Day Plan:
+Morning: Exploring the active fishing harbor at Port de Menzel Bourguiba
+Mid-Morning: Trying local cuisine at Restaurant Populaire Chez AbdelKrim
+Midday: Visiting the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville
+Afternoon: Enjoying hiking and wildlife viewing at Parc national d'Ichkel
+Evening: Shopping at the central location of Aroubi pizzeria
+Night: Relaxing with a tea at Cafe la pausegout</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Brazilia is a highly-rated (4.3/5) cafe located in Menzel Bourguiba, Tunisia. The cafe is open 24 hours a day and offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at coordinates (37.1531727, 9.7917907), which is at an elevation of 1186 meters above sea level.
+Restaurant Populaire Chez AbdelKrim is a local restaurant in Menzel Bourguiba, Tunisia, rated 4.8 out of 5 by Google users. It offers a variety of traditional Tunisian dishes and is open daily from 9:00 AM to 11:00 PM. The restaurant is located at 5Q3W+V34, Ex rue de Savoie, and can be easily found on Google Maps with the coordinates (37.1489944, 9.788904).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9836,14 +14180,67 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Les delices located at 4QVM+7RP, Les delices, Menzel Bourguiba. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Les+d%C3%A9lices/data=!4m7!3m6!1s0x12e325c17671fd79:0x5a169cd72ac5ced2!8m2!3d37.1432085!4d9.7845721!16s%2Fg%2F11j36jtyjn!19sChIJef1xdsEl4xIR0s7FKtecFlo?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Les Délices, a restaurant located in Menzel Bourguiba, Tunisia at (37.1489944, 9.788904), offers a delightful culinary experience with a 5-star rating.</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>If you're craving delicious food in Menzel Bourguiba and seeking a top-rated restaurant destination, where can you find the highly-acclaimed Les Delices?</t>
+          <t>Day Plan:
+Morning: Explore Gare Ferroviaire de Menzel-Bourguiba, the central train station offering access to the city's attractions.
+Mid-Morning: Visit Parc national d'Ichkel, a stunning natural reserve with diverse flora and fauna. Engage in captivating hikes and immerse yourself in the beauty of African wilderness.
+Midday: Savor local cuisine at Taco's, renowned for its delicious tacos, crepes, and desserts.
+Afternoon: Indulge in outdoor recreation at Roti Express, a highly-rated poultry restaurant open 24 hours. Enjoy the vibrant ambiance and relish the flavorful dishes.
+Evening: Experience the cultural richness at the Maison d'Art Dr Lfn. Explore exhibitions, attend workshops, and immerse yourself in the local art scene.
+Night: Head to Funky Monkey for a delightful crepe experience. With an exceptional rating, this creperie offers a cozy ambiance and delectable crepes.</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It offers a wide variety of coffee, tea, and other beverages, as well as a selection of food items such as sandwiches and pastries. The cafe is open from 4:30 AM to 11:30 PM every day and is located at 5Q5J+72W Cafe Ben Mahmoud, Av. de L'independance. Reviews praise its ambiance and friendly staff.
+Cafe Resto L'mama is a restaurant located in Menzel Bourguiba, Tunisia. It has a 4.8 rating based on 5 reviews, and is praised for its food and service. The restaurant is owned by Cafe Resto L'mama (proprietaire).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9941,14 +14338,62 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a good Restaurant, check out Chez Mourad - Lablabi located at 5Q2W+G46 Chez Mourad - Lablabi, Menzel Bourguiba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Chez+Mourad+-+Lablabi/data=!4m7!3m6!1s0x12e323f424608fb3:0x2739f1931071fd93!8m2!3d37.1512788!4d9.7952724!16s%2Fg%2F11hcnvfwm2!19sChIJs49gJPQj4xIRk_1xEJPxOSc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>Chez Mourad - Lablabi is a restaurant located in Menzel Bourguiba, coordinates (37.1489944, 9.788904). It has a rating of 4.3 based on 3 reviews and specializes in cuisine.</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated restaurant with a variety of categories to choose from?</t>
+          <t>Day Plan:
+Morning: Explore the Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea. Witness the lively atmosphere and capture scenic views.
+Mid-Morning: Head to Octa for a delightful breakfast or brunch. Savor the local cuisine and immerse yourself in the café's vibrant ambiance.
+Midday: Visit the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a stunning Catholic church. Admire its architectural grandeur and delve into its rich history.
+Afternoon: Indulge in a traditional lunch at Taco's. Enjoy delicious tacos, crepes, and desserts while enjoying the restaurant's charming atmosphere.
+Evening: Explore the Parc national d'Ichkel, a renowned ornithological and natural reserve. Embark on a captivating hike, surrounded by diverse flora and fauna.
+Night: Relish a satisfying dinner at Fast Food ORORO, known for its variety of food options and excellent service. Conclude your evening with a leisurely stroll through the city, soaking in the local vibes.</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Octa is a highly rated cafe located in Menzel Bourguiba, Tunisia. It opens from 4:30 AM to 1:00 AM and offers a wide range of food and drinks. The cafe's exact location is at coordinates (37.156877620917, 9.785021641012).
+Fast Food ORORO is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of food options, and is rated 4.8 out of 5 stars on Google. The restaurant is open every day of the week, and can be contacted at 22 737 104.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10046,12 +14491,67 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Funky monkey located at 5Q5V+359 Funky monkey, Menzel Bourguiba. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Funky+monkey/data=!4m7!3m6!1s0x12e3233eaba1e521:0xc2e39d6ebdcf5170!8m2!3d37.1576763!4d9.7930039!16s%2Fg%2F11jyz3h1wy!19sChIJIeWhqz4j4xIRcFHPvW6d48I?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>Where can you indulge in top-rated Creperie while exploring Menzel Bourguiba?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the charming streets of the city and uncover hidden gems at **Municipalite de Menzel Bourguiba**.
+**Mid-Morning:** Indulge in the aromas and flavors of **Hollywood stars** by sampling their grilled delicacies.
+**Midday:** Visit the picturesque **Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville** and immerse yourself in its historical and architectural wonders.
+**Afternoon:** Embark on a leisurely stroll through the vibrant **Parc National d'Ichkel**, where you can admire the rich flora and fauna.
+**Evening:** Experience the local cuisine by savoring authentic flavors at **Aroubi**, a highly-rated pizzeria.
+**Night:** Head to **Funky Monkey** and treat yourself to a delectable crepe while relishing the cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Iris is a cozy cafe located in Menzel Bourguiba, Tunisia. Open from 5 AM to midnight, it offers a warm and welcoming atmosphere for locals and tourists alike. The cafe serves a variety of beverages, including coffee, tea, and fresh juices. In addition, Café Iris offers a selection of pastries and light snacks, making it a great spot for a quick bite or a leisurely afternoon break. With its convenient location and friendly staff, Café Iris is a popular destination for those looking for a relaxing cup of coffee or a casual gathering place.
+Restaurant Manchou is a restaurant located in Menzel Bourguiba, Tunisia (37.1489944, 9.788904). It has a rating of 4.9 based on 14 reviews and offers a variety of dishes.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10157,12 +14657,63 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great cafe experience, check out Cafe Ennour located at 5Q2Q+576 Cafe Ennour, Unnamed Road, Menzel Bourguiba. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Ennour/data=!4m7!3m6!1s0x12e3238ae4ec665d:0xf2c230912ffcd144!8m2!3d37.1504242!4d9.7881447!16s%2Fg%2F11g6_v96lc!19sChIJXWbs5Ioj4xIRRNH8L5EwwvI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 519 566.</t>
+          <t>Cafe Ennour is a cafe located in 5Q2Q+576 Cafe Ennour, Unnamed Road, Menzel Bourguiba. It has a rating of 5.0 based on 3 reviews. Its workday timing is from 08:00-18:00. The cafe's coordinates are (37.1489944, 9.788904).</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly rated cafe (4.9 stars) offering a wide selection of cafe options for a delightful cafe experience?</t>
+          <t>Day Plan:
+Morning: Exploring the active fishing harbor at Port de Menzel Bourguiba.
+Mid-Morning: Trying local cuisine at the highly-rated Trip Chocolat restaurant.
+Midday: Visiting the historical Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville.
+Afternoon: Enjoying hiking and wildlife viewing opportunities at Parc national d'Ichkel.
+Evening: Shopping for souvenirs at the central Aroubi pizzeria.
+Night: Relaxing with a delicious crepe at the cozy Funky Monkey creperie.</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a highly-rated cafe located in Menzel Bourguiba, Tunisia. Located at coordinates (37.1489944, 9.788904), it is easily accessible and offers a wide range of services. With an average rating of 5.0 based on 3 reviews, the cafe has gained recognition for its quality offerings.
+Trip Chocolat is a restaurant located in menzel bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It has a rating of 4.5 out of 5 based on 4 reviews and is open from 8:00 AM to midnight every day.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10264,12 +14815,66 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated dining experience, check out La Couronne located at 5Q4M+PPX La Couronne, Av. de L'independance. This popular destination is perfect for Restaurant lovers, offering a delightful range of dining options to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on . For more details, visit their website at https://www.google.com/maps/place/La+Couronne/data=!4m7!3m6!1s0x12e3238e7875498b:0xfb9d09d4636ca129!8m2!3d37.1568525!4d9.7843697!16s%2Fg%2F11fxxtghxh!19sChIJi0l1eI4j4xIRKaFsY9QJnfs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>La Couronne is a 4.5-rated restaurant located in Menzel Bourguiba, Tunisia. It is open daily from 8 am to 11 pm and offers a variety of dining options in a cozy and welcoming atmosphere. The restaurant is known for its delicious food, friendly staff, and convenient location, making it a popular destination for both locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find La Couronne, a highly-rated dining destination with a wide selection of options?</t>
+          <t>Day Plan:
+Morning: Exploring Port de Menzel Bourguiba
+Mid-Morning: Trying local cuisine at fTyr bw`wn
+Midday: Visiting the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville
+Afternoon: Enjoying scenic views at Parc national d'Ichkel
+Evening: Relaxing with a massage at Maison d'Art Dr Lfn
+Night: Participating in a guided tour of Gare Ferroviaire de Menzel-Bourguiba</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at the coordinates (37.1489944, 9.788904), it is a popular destination for locals and tourists alike. The cafe offers a warm and inviting ambiance, with friendly staff and a great selection of drinks and snacks. Its convenient location makes it an ideal place to relax and unwind while exploring the city.
+fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It has been rated 5.0 out of 5 by 6 reviewers on Google Maps. The restaurant's main category is Restaurant, and it is located at (37.1489944, 9.788904).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10367,12 +14972,63 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated destination for Restaurant lovers, check out Restaurant nouri located at 5Q4V+7X8 Restaurant nouri, rue Victor Hugo. This highly-rated spot has a rating of 5.0, making it a must-visit. For more details, visit their website at https://www.google.com/maps/place/Restaurant+nouri/data=!4m7!3m6!1s0x12e32389f8992bfd:0x2054e4bb53291f0d!8m2!3d37.1556596!4d9.7949608!16s%2Fg%2F11fl8v6k5d!19sChIJ_SuZ-Ikj4xIRDR8pU7vkVCA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant nouri, located at 5Q4V+7X8 rue Victor Hugo, Menzel Bourguiba, Tunisia, is a highly-rated restaurant (5.0 stars) specializing in local cuisine. It has a convenient location for those looking for a dining experience in the area.</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>If you're a Restaurant lover exploring Menzel Bourguiba, what top-rated destination with a 5.0 rating is highly recommended on rue Victor Hugo?</t>
+          <t>Day Plan:
+Morning: Explore Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea.
+Mid-Morning: Try local cuisine at Cafe des Pyramides, known for its 4.0 rating and cafe-related services.
+Midday: Visit Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church.
+Afternoon: Enjoy recreational activities at Parc national d'Ichkel, an ornithological and natural reserve with opportunities for hiking and observing local fauna and flora.
+Evening: Participate in an event or activity at Maison d'Art Dr Lfn, a cultural center offering exhibitions, workshops, and performances.
+Night: Relax with a meal at Hollywood stars, a restaurant rated 5.0 on Google Maps and offering grilled food.</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe des Pyramides, located in Menzel Bourguiba at coordinates (37.156877620917, 9.785021641012), is a cafe with a 4.0 rating. It operates daily from 3:00am to 11:00pm and offers a variety of cafe-related services.
+Fast Food ORORO is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of food options, and is rated 4.8 out of 5 stars on Google. The restaurant is open every day of the week, and can be contacted at 22 737 104.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10478,12 +15134,67 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Restaurant de volaille, check out Roti Express. Located at 56 Av. de L'independance, Menzel Bourguiba, this destination offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on Mondays. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website.</t>
+          <t>Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>In Menzel Bourguiba, where can you savor delectable poultry dishes at a highly acclaimed restaurant, open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore Menzel Bourguiba's active fishing harbor, Port de Menzel Bourguiba, and witness the bustling fishing activity.
+Mid-Morning: Visit the Gare Ferroviaire de Menzel-Bourguiba, a historical train station serving as a significant transportation hub.
+Midday: Treat your palate to the local cuisine by dining at Restaurant Les Délices, renowned for its culinary excellence and 5-star rating.
+Afternoon: Immerse yourself in the cultural heritage of Menzel Bourguiba by visiting the Municipalite de Menzel Bourguiba, the local administration municipale.
+Evening: Engage in outdoor recreation at Parc national d'Ichkel, a natural reserve offering hiking trails and opportunities to observe the local flora and fauna.
+Night: Unwind and indulge in a relaxing experience with a visit to a spa or hotel, or take a leisurely stroll through the city, soaking in the ambiance.</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sidi Yahia is a cafe located in Menzel Bourguiba, Tunisia, with a rating of 4.3 stars out of 19 reviews. It is open daily from 6:00 AM to 11:00 PM and offers a variety of cafe and snack options. The cafe is located at the coordinates (37.1489944, 9.788904) and can be contacted by phone at 99 532 241.
+Les Délices, a restaurant located in Menzel Bourguiba, Tunisia at (37.1489944, 9.788904), offers a delightful culinary experience with a 5-star rating.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10587,14 +15298,61 @@
           <t>menzel bourguiba</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Pizza Frryville located at 5Q4R+FXG Pizza Frryville, Menzel Bourguiba. This top-rated destination rated 4.5 is perfect for Restaurant lovers and offers a range of Restaurant to choose from. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their website at https://www.google.com/maps/place/Pizza+Frryville/data=!4m7!3m6!1s0x12e323c72af9f197:0x57b738879e73c53f!8m2!3d37.1561826!4d9.7924522!16s%2Fg%2F11g0g5j8q5!19sChIJl_H5Kscj4xIRP8Vznoc4t1c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 402 264.</t>
-        </is>
-      </c>
+      <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizza restaurant in Menzel Bourguiba that offers a wide selection of dishes?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Port de Menzel Bourguiba, the vibrant fishing harbor on the Mediterranean Sea.
+Mid-Morning: Visit the fascinating Parc National d'Ichkel, a vast ornithological and natural reserve known for its stunning hiking trails.
+Midday: Savor the local cuisine at La Couronne or Taco's, two highly-rated restaurants offering delectable dishes.
+Afternoon: Engage in outdoor activities at the scenic AGIL Menzel Bourguiba, a gas station that offers 24-hour service and provides access to nearby recreational areas.
+Evening: Experience cultural immersion at the Maison d'Art Dr Lfn, a cultural center that hosts art exhibitions, workshops, and performances.
+Night: Relax with a refreshing tea at Cafe la pausegout, a charming tea room where you can unwind and enjoy the serene ambiance.</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café la Sirene is a highly-rated cafe located in Menzel Bourguiba, Tunisia. It boasts a cozy and inviting atmosphere, offering a delightful experience for patrons. With a rating of 4.6 based on 8 reviews, this establishment has earned the喜爱 of locals and visitors alike.
+La Couronne, located at 5Q4M+PPX La Couronne, Av. de L'independance, Menzel Bourguiba, is a highly-rated restaurant with a 4.5 rating from 2 reviews. It offers a variety of dishes and its main category is Restaurant. The restaurant is open from 08:00-23:00 every day and is located at (37.156877620917, 9.785021641012).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10700,12 +15458,72 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a top-rated Restaurant, check out club fast food KN chez jamila located at Rue Imam Sahnoun, Menzel Bourguiba. This destination is perfect for Restaurant lovers and offers a range of cuisines to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on Sundays. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, call them at 22 417 936.</t>
+          <t>Club Fast Food KN chez Jamila is a restaurant in Menzel Bourguiba, Tunisia. Situated in Rue Imam Sahnoun (GPS coordinates 37.1489944, 9.788904), it serves up a menu of delicious food and is open from 8 am to 10 pm every day except Sunday.</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>Which top-rated restaurant in Menzel Bourguiba offers a range of cuisines within walking distance from you?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore Port de Menzel Bourguiba, the bustling fishing harbor with picturesque views of the Mediterranean Sea.
+**Mid-Morning:**
+- Visit the Municipalite de Menzel Bourguiba for insights into local governance and history.
+**Midday:**
+- Try local cuisine at the highly-rated Restaurant Chaabene, known for its diverse culinary offerings.
+**Afternoon:**
+- Engage in outdoor activities like hiking or birdwatching at Parc National d'Ichkel, a vast nature reserve with abundant wildlife.
+**Evening:**
+- Experience cultural immersion at the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church.
+**Night:**
+- Relax with a soothing spa treatment at the luxurious Maison d'Art Dr Lfn, offering a range of wellness therapies.</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café la Sirene is a highly-rated cafe located in Menzel Bourguiba, Tunisia. It boasts a cozy and inviting atmosphere, offering a delightful experience for patrons. With a rating of 4.6 based on 8 reviews, this establishment has earned the喜爱 of locals and visitors alike.
+Restaurant Chaabene is a highly-rated restaurant in Menzel Bourguiba, Tunisia, boasting a rating of 4.8 out of 5 stars. Open daily from 9 AM to 11 PM, it offers a diverse menu of culinary delights. Situated at the coordinates (37.1489944, 9.788904) on blvd Saadi Carnot, Restaurant Chaabene attracts diners with its delicious food and friendly service, making it a popular destination for locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10803,14 +15621,63 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a bite to eat, consider Chez Firas at 5Q2V+MPW Chez Firas. 
-This top-rated Restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Chez+Firas/data=!4m7!3m6!1s0x12e32325c88d253b:0xfb0311390adf868c!8m2!3d37.1517297!4d9.7943326!16s%2Fg%2F11h3y41qcv!19sChIJOyWNyCUj4xIRjIbfCjkRA_s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Chez Firas is a popular restaurant located in Menzel Bourguiba, Tunisia. It is situated at the coordinates (37.1489944, 9.788904) and has a rating of 4.5 out of 5 on Google. Chez Firas specializes in providing delicious meals and offers a cozy atmosphere to its patrons. Its menu offers a variety of dishes to choose from, ensuring that there is something for everyone.</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated restaurant in Menzel Bourguiba known for its diverse menu, and where can it be found?</t>
+          <t>Day Plan:
+Morning: Explore Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea.
+Mid-Morning: Try local cuisine at Mozart, a renowned restaurant known for its culinary excellence.
+Midday: Visit the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church.
+Afternoon: Enjoy scenic views at Parc National d'Ichkel, a stunning ornithological and natural reserve.
+Evening: Participate in a guided tour of the Municipalite de Menzel Bourguiba, an administration municipale.
+Night: Relax with a drink at Cafe Ennour, a highly-rated cafe with a wide range of services.</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a highly-rated cafe located in Menzel Bourguiba, Tunisia. Located at coordinates (37.1489944, 9.788904), it is easily accessible and offers a wide range of services. With an average rating of 5.0 based on 3 reviews, the cafe has gained recognition for its quality offerings.
+**Mozart**, a renowned restaurant situated in the heart of Menzel Bourguiba, is a haven for food enthusiasts. Located at the coordinates (37.1489944, 9.788904), it offers an unmatched dining experience from 9:00 AM to midnight daily. With a rating of 4.1 out of 5 based on 33 reviews, it's a testament to its culinary excellence. While its website and contact information remain unavailable, its featured image showcases the restaurant's chic ambiance and inviting atmosphere.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10916,16 +15783,11 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Resto Pizza Della Piazza located at 7050 Av. de l'Independance, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-20:00. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website or call them at 28 065 536.</t>
-        </is>
-      </c>
-      <c r="AA97" t="inlineStr">
-        <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated (5.0 star) restaurant that caters to Restaurant lovers called Resto Pizza Della Piazza?</t>
-        </is>
-      </c>
+          <t>Resto Pizza Della Piazza is a restaurant located in Menzel Bourguiba, Tunisia. It is situated at 7050 Av. de l'Independance and has a rating of 5.0 out of 5 stars based on 1 review. The restaurant serves pizza and is open from 9:00 AM to 8:00 PM. It does not have a website or social media presence.</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -11029,12 +15891,68 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a delicious dining experience, check out Hollywood stars located at 5Q3V+9HM Rue de Corse. This top-rated restaurant specializes in Cafe et restaurant de grillades and offers a range of delectable dishes to choose from. With a high rating of 5.0, it's a must-visit spot for culinary enthusiasts. The restaurant is open during weekdays from 09:00-19:00, but closed on Sundays. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, you can call them at 72 470 423.</t>
+          <t>Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe et restaurant de grillades spot in Menzel Bourguiba, perfect for a culinary adventure?</t>
+          <t>Day Plan:
+Morning:
+&gt; - Explore the Port de Menzel Bourguiba, an active fishing harbor on the Mediterranean Sea, offering a glimpse into the local fishing industry.
+Mid-Morning:
+&gt; - Visit the landmarks of the city, like the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church.
+Midday:
+&gt; - Try the local cuisine at Aroubi, a highly-rated pizzeria offering delicious pizzas with a 4.5-star rating.
+Afternoon:
+&gt; - Engage in outdoor activities at Parc national d'Ichkel, a renowned ornithological and natural reserve, providing a breathtaking panorama of untamed Africa.
+Evening:
+&gt; - Enjoy scenic views at the Port de Menzel Bourguiba, capturing the beauty of the harbor as the sun sets.
+Night:
+&gt; - Relax with a cup of tea at Cafe la pausegout, a tea room offering a moment of relaxation and sipping delicious tea.</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Flamenco**, located in Menzel Bourguiba at coordinates (37.151982, 9.7945418), is a café offering a relaxing ambiance to its customers. The establishment is open from 6am to midnight on weekdays and closed on weekends. Customers can enjoy a variety of café offerings while soaking in the atmosphere of the establishment.
+Restaurant Chaabene is a highly-rated restaurant in Menzel Bourguiba, Tunisia, boasting a rating of 4.8 out of 5 stars. Open daily from 9 AM to 11 PM, it offers a diverse menu of culinary delights. Situated at the coordinates (37.1489944, 9.788904) on blvd Saadi Carnot, Restaurant Chaabene attracts diners with its delicious food and friendly service, making it a popular destination for locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11128,12 +16046,73 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for something fun to do, check out Lablebi 2 located at 5Q4R+QJ Lablebi 2, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Lablebi+2/data=!4m7!3m6!1s0x12e323cee34ccdbf:0xb0c90b96fa565c0b!8m2!3d37.1569095!4d9.7916398!16s%2Fg%2F11tnf9_cyj!19sChIJv81M484j4xIRC1xW-pYLybA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Lablebi 2 is a restaurant located in Menzel Bourguiba (37.1489944, 9.788904). The restaurant is highly rated with a score of 5.0 out of 5, based on one review.</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you find a highly-rated restaurant destination offering Restaurant options with a perfect 5.0 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the vibrant fishing harbor at **Port de Menzel Bourguiba**.
+**Mid-Morning:**
+* Savor traditional Tunisian cuisine at the highly-rated pizzeria, **Aroubi**.
+**Midday:**
+* Visit the historic **Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville** for its architectural beauty.
+**Afternoon:**
+* Engage in outdoor activities and wildlife viewing at the **Parc national d'Ichkel**.
+**Evening:**
+* Immerse in the local culture at the **Maison d'Art Dr Lfn**, offering exhibitions and cultural performances.
+**Night:**
+* Indulge in authentic Tunisian cuisine at the 4.5-star-rated restaurant, **Taco's**.</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Flamenco is a cafe located in Menzel Bourguiba. It is rated 4.0 stars out of 12 reviews and is open from 06:00 to 00:00 on weekdays. It offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 5Q2V+RQP, Menzel Bourguiba, and can be reached by phone at [NAN].
+Chez Mourad - Lablabi is a restaurant located in Menzel Bourguiba, coordinates (37.1489944, 9.788904). It has a rating of 4.3 based on 3 reviews and specializes in cuisine.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11231,14 +16210,66 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Gare Ferroviaire de Menzel-Bourguiba located at Gare Ferroviaire de Menzel-Bourguiba, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their website at https://www.google.com/maps/place/Gare+Ferroviaire+de+Menzel-Bourguiba/data=!4m7!3m6!1s0x12e323f4401ca2c1:0xebfccba63b268f4d!8m2!3d37.1515177!4d9.7938797!16s%2Fg%2F1vg0sv2z!19sChIJwaIcQPQj4xIRTY8mO6bL_Os?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination offering a variety of Gare options in Menzel Bourguiba?</t>
+          <t>**Day Plan:**
+* **Morning:** Explore Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea.
+* **Mid-Morning:** Visit the Maison d'Art Dr Lfn, a cultural center offering exhibitions, workshops, and performances.
+* **Midday:** Try local cuisine at Taco's, known for its tacos, crepes, and desserts.
+* **Afternoon:** Enjoy scenic views at Parc National d'Ichkel, a vast ornithological and natural reserve surrounding Lake Ichkeul.
+* **Evening:** Relax with a guided tour of the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful historic Catholic church.
+* **Night:** Participate in a traditional Tunisian cultural immersion at the Municipalite de Menzel Bourguiba.</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ennour is a highly-rated cafe located in Menzel Bourguiba, Tunisia. Located at coordinates (37.1489944, 9.788904), it is easily accessible and offers a wide range of services. With an average rating of 5.0 based on 3 reviews, the cafe has gained recognition for its quality offerings.
+fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has received positive reviews from customers, earning a rating of 5.0 out of 5. The restaurant is located at the coordinates (37.1489944, 9.788904).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11344,14 +16375,79 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a reliable gas station, check out AGIL Menzel Bourguiba located at 5Q3V+G69 AGIL Menzel Bourguiba, rue Lamartine, Menzel Bourguiba. 
-This top-rated station offers a range of services and is perfect for those in need of a quick pit stop. 
-With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their website at  or call them at 72 460 331.</t>
+          <t>AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated gas station with extended hours and a convenient location in Menzel Bourguiba?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Gare Ferroviaire de Menzel-Bourguiba train station.
+* Take a guided tour of the Municipalite de Menzel Bourguiba administration building.
+**Mid-Morning:**
+* Visit the Maison d'Art Dr Lfn cultural center for local art exhibitions.
+* Enjoy a delicious tea at Cafe la pausegout tea room.
+**Midday:**
+* Lunch at Taco's restaurant, known for its tacos and crepes.
+* Explore the active fishing harbor at Port de Menzel Bourguiba.
+**Afternoon:**
+* Relax and enjoy scenic views at Parc national d'Ichkel nature reserve.
+* Participate in outdoor activities like hiking or wildlife viewing at the park.
+**Evening:**
+* Dinner at HolyMoly Restaurant for a taste of local fast food.
+* Experience the vibrant cultural immersion at the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville Catholic church.
+**Night:**
+* Enjoy grilled food and a 5-star dining experience at Hollywood stars restaurant.
+* Immerse yourself in local cuisine with dinner at Chez Rzouga restaurant, rated 4.1 stars on Google Maps.</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe azouzi is a cafe located in menzel bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The cafe has a good rating of 4.0 and offers a variety of services and products.
+Chez Rzouga is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has a rating of 4.1 stars on Google Maps. The restaurant is open from 9:00 AM to 2:00 PM during the weekdays and is closed on Sundays. It is located at the coordinates (37.156877620917, 9.785021641012).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11449,14 +16545,66 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Gare Ferroviaire de Menzel-Bourguiba located at Gare Ferroviaire de Menzel-Bourguiba, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Gare lovers and offers a range of categories to choose from. 
-With a rating of 3.8, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Gare+Ferroviaire+de+Menzel-Bourguiba/data=!4m7!3m6!1s0x12e323f4401ca2c1:0xebfccba63b268f4d!8m2!3d37.1515177!4d9.7938797!16s%2Fg%2F1vg0sv2z!19sChIJwaIcQPQj4xIRTY8mO6bL_Os?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>Where in Menzel Bourguiba can you visit a top-rated Gare destination with a 3.8 rating, offering various categories?</t>
+          <t>Day Plan:
+Morning: Explore the historical Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville.
+Mid-Morning: Visit the Maison d'Art Dr Lfn for a cultural immersion experience.
+Midday: Try local cuisine at Restaurant Chaabene, known for its delicious dishes and high ratings.
+Afternoon: Take a guided tour of Port de Menzel Bourguiba, an active fishing harbor offering scenic views.
+Evening: Enjoy a relaxing evening with friends or family at Cafe la pausegout, a highly-rated tea room.
+Night: Experience traditional Tunisian cuisine at Taco's, offering a variety of dishes and a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It is known for its welcoming atmosphere, friendly staff, and delicious coffee. The cafe is open from 4:30 am to 11:30 pm, making it a great place to grab a morning coffee or relax with friends in the evening. Café Ben Mahmoud is also a great place to people-watch, as it is located on a busy street. The cafe is easy to find, as it is located just off the main road.
+Restaurant Chaabene is located in Menzel Bourguiba, Tunisia, with the coordinates (37.1489944, 9.788904). It offers a menu filled with delicious dishes and also has a 4.8 rating based on 4 reviews. This restaurant is open from 9:00 AM to 11:00 PM every day and is a great place to visit for a memorable dining experience.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11566,14 +16714,67 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a reliable Station-service, check out Shell Menzel Bourguiba located at Rue Lamartine, 190 Av Mongi Slim, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Station-service and Superette lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day,  To get there, use these GPS coordinates: 37.1483491, 9.7895079. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044707-menzel-bourguiba or call them at 71 249 149.</t>
+          <t>Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Station-service and Superette with 24-hour availability in the Menzel Bourguiba area, located at Rue Lamartine, 190 Av Mongi Slim?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea.
+Mid-Morning: Savor local cuisine at the highly-rated Roti Express, famous for its mouthwatering poultry dishes.
+Midday: Visit the Municipalite de Menzel Bourguiba for administrative services and gain insights into local governance.
+Afternoon: Immerse in the spiritual ambiance of the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a historic Catholic church.
+Evening: Stroll through the Parc National d'Ichkel, a vast ornithological and natural reserve, and witness the beauty of nature's wonders.
+Night: Delight in authentic Italian flavors at Aroubi, a top-rated pizzeria known for its inviting ambiance and delicious dishes.</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sidi Yahia, wonderfully rated 4.3, is a cafe located at 5Q7M+HFR Cafe Sidi Yahia, Unnamed Road, Menzel Bourguiba, Tunisia, with coordinates (37.1489944, 9.788904). It is open from 06:00 to 23:00 and if you need to contact them, feel free to call the following number: 99 532 241.
+Club Fast Food KN chez Jamila is a restaurant in Menzel Bourguiba, Tunisia. Situated in Rue Imam Sahnoun (GPS coordinates 37.1489944, 9.788904), it serves up a menu of delicious food and is open from 8 am to 10 pm every day except Sunday.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11671,12 +16872,64 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a stop for your bus, check out Gare Routiere de Menzel-Bourguiba located at Av. de L'independance. This top-rated destination is perfect for transportation lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012.</t>
+          <t>**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>What is the name and location of a highly rated transportation destination in Menzel Bourguiba that offers various categories and is perfect for transportation enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea. Take in the sights and sounds of the bustling port and observe the local fishing industry.
+Mid-Morning: Trying local cuisine at Taco's, a restaurant known for its delicious tacos, crepes, and desserts. Savor the authentic flavors of Tunisian cuisine while enjoying the restaurant's lively atmosphere.
+Midday: Visiting Gare Routiere de Menzel-Bourguiba, the central bus station in the city. Experience the local transportation hub and learn about the various routes and destinations available.
+Afternoon: Enjoying scenic views at Parc National d'Ichkel, a vast ornithological and natural reserve. Explore the diverse hiking trails, immerse yourself in the rich flora and fauna, and capture breathtaking views of the surrounding landscapes.
+Evening: Relaxing with a rejuvenating massage at a local spa. Treat yourself to some self-care and unwind in a tranquil and serene environment.
+Night: Participating in a traditional Tunisian cooking class. Learn the art of preparing authentic Tunisian dishes, engage with locals, and savor the flavors of freshly prepared cuisine.</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Angolo d'Or** is a well-rated cafe located in Menzel Bourguiba, Tunisia. It offers a variety of amenities, including Wi-Fi, outdoor seating, and live music. The cafe is open 24 hours a day, 7 days a week, and is located at coordinates (37.156877620917, 9.785021641012).
+fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has received positive reviews from customers, earning a rating of 5.0 out of 5. The restaurant is located at the coordinates (37.1489944, 9.788904).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11782,12 +17035,67 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a Station-service, check out AGIL Menzel Bourguiba located at 5Q3V+G69 AGIL Menzel Bourguiba, rue Lamartine, Menzel Bourguiba. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their website at https://www.google.com/maps/place/AGIL+Menzel+Bourguiba/data=!4m7!3m6!1s0x12e323f382d1706d:0x2de9ec2c812a36f9!8m2!3d37.1537881!4d9.7931112!16s%2Fg%2F11b708l502!19sChIJbXDRgvMj4xIR-TYqgSzs6S0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 72 460 331.</t>
+          <t>AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated AGIL Station-service with a wide selection in Menzel Bourguiba that offers 24-hour service?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmarks of the Eglise Sainte-Therese-de-l'Enfant-Jesus and the Municipalite de Menzel Bourguiba.
+Mid-Morning: Visit the Gare Ferroviaire de Menzel-Bourguiba for a glimpse of the city's transportation hub.
+Midday: Try local cuisine at the highly-rated "Funky Monkey" creperie.
+Afternoon: Engage in outdoor activities like hiking at the Parc national d'Ichkel.
+Evening: Enjoy a delightful culinary experience at the esteemed La Couronne restaurant.
+Night: Relax and unwind at the Cafe la pausegout tea room.</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Iris**
+Cafe Iris is a cafe situated in Menzel Bourguiba, Tunisia. Open from 05:00-00:00, it offers a variety of refreshments and meals. Located at the coordinates 37.1489944, 9.788904, it's a great spot to relax and enjoy delicious offerings.
+La Couronne is a restaurant located in Menzel Bourguiba, Tunisia, offering a delectable culinary experience. It boasts a 4.5-star rating, indicating its exceptional offerings. Situated at coordinates (37.156877620917, 9.785021641012), it is easily accessible. Despite the lack of additional information, La Couronne is a highly recommended destination for those seeking a delightful dining experience.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11885,15 +17193,63 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a reliable petrol station, check out OLA Menzel Bourguiba (Sud) located at 5Q2V+VPC OLA Menzel Bourguiba (Sud), Menzel Bourguiba. 
-This top-rated petrol station is perfect for car owners and offers a range of services to choose from. 
-With a rating of 3.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 37.15368, 9.78594.</t>
+          <t>OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated petrol station in Menzel Bourguiba that provides exceptional services and is conveniently accessible?</t>
+          <t>Day Plan:
+Morning: Visit Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, Ferryville
+Mid-Morning: Try local cuisine at Aroubi, Menzel Bourguiba
+Midday: Explore Parc national d'Ichkel, Ichkeul
+Afternoon: Enjoy a guided tour of Municipalite de Menzel Bourguiba, Menzel Bourguiba
+Evening: Take a relaxing stroll along Port de Menzel Bourguiba, Menzel Bourguiba
+Night: Have dinner at Hollywood stars, Menzel Bourguiba</t>
+        </is>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Khemiri is a cafe located near Passage Tinja in Menzel Bourguiba, Tunisia. Worthy of note is that it has a 5-star rating from 2 reviews and the contact number is 53 164 642.
+Trip Chocolat is a restaurant located in menzel bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It has a rating of 4.5 out of 5 based on 4 reviews and is open from 8:00 AM to midnight every day.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11991,12 +17347,72 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba, check out Gare Ferroviaire de Menzel-Bourguiba, located at Gare Ferroviaire de Menzel-Bourguiba, Menzel Bourguiba 7050. This top-rated destination with a rating of 3.8 is perfect for Gare lovers. It offers a range of categories to choose from, including Gare. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their link at https://www.google.com/maps/place/Gare+Ferroviaire+de+Menzel-Bourguiba/data=!4m7!3m6!1s0x12e323f4401ca2c1:0xebfccba63b268f4d!8m2!3d37.1515177!4d9.7938797!16s%2Fg%2F1vg0sv2z!19sChIJwaIcQPQj4xIRTY8mO6bL_Os?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>Where can you find Gare Ferroviaire de Menzel-Bourguiba, a popular destination for Gare enthusiasts in Menzel Bourguiba?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Exploring **Port de Menzel Bourguiba** for its bustling fishing harbor and picturesque views.
+**Mid-Morning:**
+* Trying local cuisine at **Taco's**, known for its delicious tacos and Mexican dishes.
+**Midday:**
+* Visiting the **Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville**, a beautiful and historic Catholic church.
+**Afternoon:**
+* Enjoying the scenic views and engaging in outdoor activities at **Parc national d'Ichkel**.
+**Evening:**
+* Relaxing with a traditional massage at the **Maison d'Art Dr Lfn**, a cultural center offering wellness services.
+**Night:**
+* Experiencing cultural immersion at a local performance at the **Maison d'Art Dr Lfn**.</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Flamenco**, located in Menzel Bourguiba at coordinates (37.151982, 9.7945418), is a café offering a relaxing ambiance to its customers. The establishment is open from 6am to midnight on weekdays and closed on weekends. Customers can enjoy a variety of café offerings while soaking in the atmosphere of the establishment.
+Mozart is a restaurant located in Menzel Bourguiba, Tunisia, at coordinates (37.1489944, 9.788904). It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant has a cozy atmosphere and friendly staff, and it is a popular spot for locals and tourists alike.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.
+Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.
+The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12094,12 +17510,67 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Arret de bus, check out Gare Routiere de Menzel-Bourguiba at Gare Routiere de Menzel-Bourguiba, Av. de L'independance, Menzel Bourguiba. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Gare+Routi%C3%A8re+de+Menzel-Bourguiba/data=!4m7!3m6!1s0x12e3238cd72cc1fb:0xf7081ba20c3bfbd8!8m2!3d37.1558531!4d9.7896579!16s%2Fg%2F1tg96zfz!19sChIJ-8Es14wj4xIR2Ps7DKIbCPc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>Where can travelers find a highly rated Arret de bus in Menzel Bourguiba with a 4.0 rating and conveniently located at Gare Routiere de Menzel-Bourguiba?</t>
+          <t>Day Plan:
+Morning: Exploring the bustling Port de Menzel Bourguiba, where you can witness the lively fishing activities and admire the scenic views of the Mediterranean Sea.
+Mid-Morning: Trying local cuisine at Restaurant Chaabene, renowned for its exquisite menu and impeccable service, offering a delightful culinary experience.
+Midday: Discovering the fascinating Parc national d'Ichkel, a UNESCO World Heritage site, where you can embark on a nature walk amidst stunning landscapes and diverse wildlife.
+Afternoon: Engaging in outdoor activities like biking or strolling along the picturesque coastline, enjoying the refreshing sea breeze and the vibrant atmosphere.
+Evening: Experiencing cultural immersion at the Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a historic Catholic church, admiring its beautiful architecture and significant role in the local community.
+Night: Delight in a memorable dining experience at Roti Express, savoring their highly-rated poultry dishes in a convivial ambiance, concluding the day with a satisfying and flavorful meal.</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Flamenco is a cafe located in Menzel Bourguiba. It is rated 4.0 stars out of 12 reviews and is open from 06:00 to 00:00 on weekdays. It offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 5Q2V+RQP, Menzel Bourguiba, and can be reached by phone at [NAN].
+Restaurant Chaabene is located in Menzel Bourguiba, Tunisia, with the coordinates (37.1489944, 9.788904). It offers a menu filled with delicious dishes and also has a 4.8 rating based on 4 reviews. This restaurant is open from 9:00 AM to 11:00 PM every day and is a great place to visit for a memorable dining experience.
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.
+HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.
+Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.
+Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12205,12 +17676,63 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a gas station, check out AGIL Menzel Bourguiba located at 5Q3V+G69 AGIL Menzel Bourguiba, rue Lamartine, Menzel Bourguiba. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their website at https://www.google.com/maps/place/AGIL+Menzel+Bourguiba/data=!4m7!3m6!1s0x12e323f382d1706d:0x2de9ec2c812a36f9!8m2!3d37.1537881!4d9.7931112!16s%2Fg%2F11b708l502!19sChIJbXDRgvMj4xIR-TYqgSzs6S0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 72 460 331.</t>
+          <t>AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated gas station in Menzel Bourguiba, offering top-notch station services and operating 24/7?</t>
+          <t>Day Plan:
+Morning: Exploring Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea
+Mid-Morning: Trying local cuisine at Roti Express, a highly-rated poultry restaurant
+Midday: Visiting the Maison d'Art Dr Lfn, a cultural center offering a variety of activities
+Afternoon: Taking a guided tour of Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, a beautiful and historic Catholic church
+Evening: Enjoying scenic views at Parc national d'Ichkel, a large ornithological and natural reserve
+Night: Relaxing with a massage at a local spa or hotel</t>
+        </is>
+      </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe azouzi is a cafe located in menzel bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The cafe has a good rating of 4.0 and offers a variety of services and products.
+fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It has been rated 5.0 out of 5 by 6 reviewers on Google Maps. The restaurant's main category is Restaurant, and it is located at (37.1489944, 9.788904).
+Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.
+HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).
+Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.
+Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.
+Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).
+Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.
+Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.
+The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.
+The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.
+Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.
+A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.
+"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.
+Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.
+OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.
+**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
